--- a/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163A7386-8FFE-45EA-A296-968CD33A7FD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FB7569-137C-46DE-A1F6-F233A9DC2084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="270" windowWidth="16610" windowHeight="9860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1429,6 +1429,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1440,12 +1446,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2057,8 +2057,8 @@
   <dimension ref="A1:BL54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2110,107 +2110,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
         <v>45093</v>
       </c>
-      <c r="F3" s="96"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
         <v>45089</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
         <v>45096</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
         <v>45103</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
         <v>45110</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
         <v>45117</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
         <v>45124</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
         <v>45131</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
         <v>45138</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -3381,17 +3381,17 @@
         <v>0.5</v>
       </c>
       <c r="E16" s="73">
-        <f ca="1">E14+1</f>
+        <f ca="1">E14-5</f>
+        <v>45092</v>
+      </c>
+      <c r="F16" s="73">
+        <f ca="1">E16+6</f>
         <v>45098</v>
-      </c>
-      <c r="F16" s="73">
-        <f ca="1">E16+4</f>
-        <v>45102</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -3460,12 +3460,12 @@
         <v>0.5</v>
       </c>
       <c r="E17" s="73">
-        <f ca="1">E16+2</f>
-        <v>45100</v>
+        <f ca="1">E16+1</f>
+        <v>45093</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45105</v>
+        <v>45098</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3535,14 +3535,16 @@
         <v>69</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="42">
+        <v>0.2</v>
+      </c>
       <c r="E18" s="73">
-        <f ca="1">F17</f>
-        <v>45105</v>
+        <f ca="1">E17</f>
+        <v>45093</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45108</v>
+        <v>45096</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3616,17 +3618,17 @@
         <v>0.05</v>
       </c>
       <c r="E19" s="73">
-        <f ca="1">E18</f>
-        <v>45105</v>
+        <f ca="1">E18+4</f>
+        <v>45097</v>
       </c>
       <c r="F19" s="73">
-        <f ca="1">E19+2</f>
-        <v>45107</v>
+        <f ca="1">E19+4</f>
+        <v>45101</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -3692,8 +3694,14 @@
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="42"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
+      <c r="E20" s="73">
+        <f ca="1">E19</f>
+        <v>45097</v>
+      </c>
+      <c r="F20" s="73">
+        <f t="shared" ref="F20:F22" ca="1" si="6">E20+2</f>
+        <v>45099</v>
+      </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="5"/>
@@ -3762,8 +3770,14 @@
       <c r="D21" s="42">
         <v>0.2</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
+      <c r="E21" s="73">
+        <f ca="1">E17</f>
+        <v>45093</v>
+      </c>
+      <c r="F21" s="73">
+        <f ca="1">E21+2</f>
+        <v>45095</v>
+      </c>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="5"/>
@@ -3832,8 +3846,14 @@
       <c r="D22" s="42">
         <v>0.2</v>
       </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
+      <c r="E22" s="73">
+        <f ca="1">E21</f>
+        <v>45093</v>
+      </c>
+      <c r="F22" s="73">
+        <f t="shared" ca="1" si="6"/>
+        <v>45095</v>
+      </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
       <c r="I22" s="5"/>
@@ -3903,12 +3923,12 @@
         <v>0.1</v>
       </c>
       <c r="E23" s="73">
-        <f ca="1">E19</f>
-        <v>45105</v>
+        <f ca="1">E17</f>
+        <v>45093</v>
       </c>
       <c r="F23" s="73">
         <f ca="1">E23+3</f>
-        <v>45108</v>
+        <v>45096</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38">
@@ -3979,8 +3999,14 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="42"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
+      <c r="E24" s="73">
+        <f ca="1">E18+4</f>
+        <v>45097</v>
+      </c>
+      <c r="F24" s="73">
+        <f ca="1">E24+3</f>
+        <v>45100</v>
+      </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="5"/>
@@ -4047,8 +4073,14 @@
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="42"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="E25" s="73">
+        <f t="shared" ref="E24:E27" ca="1" si="7">E19</f>
+        <v>45097</v>
+      </c>
+      <c r="F25" s="73">
+        <f t="shared" ref="F24:F27" ca="1" si="8">E25+3</f>
+        <v>45100</v>
+      </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="5"/>
@@ -4115,8 +4147,14 @@
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="42"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
+      <c r="E26" s="73">
+        <f t="shared" ca="1" si="7"/>
+        <v>45097</v>
+      </c>
+      <c r="F26" s="73">
+        <f t="shared" ca="1" si="8"/>
+        <v>45100</v>
+      </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="5"/>
@@ -4185,8 +4223,14 @@
       <c r="D27" s="42">
         <v>0.2</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
+      <c r="E27" s="73">
+        <f t="shared" ca="1" si="7"/>
+        <v>45093</v>
+      </c>
+      <c r="F27" s="73">
+        <f ca="1">E27+6</f>
+        <v>45099</v>
+      </c>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="5"/>
@@ -6032,17 +6076,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D51">
@@ -6091,7 +6135,7 @@
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="F19 F30:F31 E31" formula="1"/>
+    <ignoredError sqref="F30:F31 E31" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -6227,12 +6271,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6524,29 +6579,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6573,13 +6621,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FB7569-137C-46DE-A1F6-F233A9DC2084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8503F79-5BA3-4279-A0AC-213D9CEC084D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="270" windowWidth="16610" windowHeight="9860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1429,23 +1429,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2056,9 +2056,9 @@
   </sheetPr>
   <dimension ref="A1:BL54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="57" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2110,107 +2110,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
         <v>45093</v>
       </c>
-      <c r="F3" s="98"/>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
         <v>45089</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
         <v>45096</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
         <v>45103</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
         <v>45110</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
         <v>45117</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
         <v>45124</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
         <v>45131</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
         <v>45138</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+1</f>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="42">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="73">
         <f ca="1">E17</f>
@@ -4074,11 +4074,11 @@
       <c r="C25" s="17"/>
       <c r="D25" s="42"/>
       <c r="E25" s="73">
-        <f t="shared" ref="E24:E27" ca="1" si="7">E19</f>
+        <f t="shared" ref="E25:E27" ca="1" si="7">E19</f>
         <v>45097</v>
       </c>
       <c r="F25" s="73">
-        <f t="shared" ref="F24:F27" ca="1" si="8">E25+3</f>
+        <f t="shared" ref="F25:F26" ca="1" si="8">E25+3</f>
         <v>45100</v>
       </c>
       <c r="G25" s="38"/>
@@ -6076,17 +6076,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D51">
@@ -6271,23 +6271,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6579,22 +6568,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6621,9 +6617,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8503F79-5BA3-4279-A0AC-213D9CEC084D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099DE8CD-ECB6-4C1D-A0D3-010277777BB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>login.css</t>
+  </si>
+  <si>
+    <t>title.css</t>
   </si>
 </sst>
 </file>
@@ -1429,6 +1432,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1440,12 +1449,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2054,11 +2057,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL54"/>
+  <dimension ref="A1:BL55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="57" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2110,107 +2113,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
         <v>45093</v>
       </c>
-      <c r="F3" s="96"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
         <v>45089</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
         <v>45096</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
         <v>45103</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
         <v>45110</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
         <v>45117</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
         <v>45124</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
         <v>45131</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
         <v>45138</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2775,7 +2778,7 @@
       <c r="F8" s="69"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38" t="str">
-        <f t="shared" ref="H8:H51" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H52" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -3378,7 +3381,7 @@
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="42">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E16" s="73">
         <f ca="1">E14-5</f>
@@ -3693,7 +3696,9 @@
         <v>71</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="42"/>
+      <c r="D20" s="42">
+        <v>0</v>
+      </c>
       <c r="E20" s="73">
         <f ca="1">E19</f>
         <v>45097</v>
@@ -3768,7 +3773,7 @@
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="42">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="E21" s="73">
         <f ca="1">E17</f>
@@ -3844,7 +3849,7 @@
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="42">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E22" s="73">
         <f ca="1">E21</f>
@@ -3920,7 +3925,7 @@
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="42">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="E23" s="73">
         <f ca="1">E17</f>
@@ -3998,7 +4003,9 @@
         <v>75</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="42"/>
+      <c r="D24" s="42">
+        <v>0.6</v>
+      </c>
       <c r="E24" s="73">
         <f ca="1">E18+4</f>
         <v>45097</v>
@@ -4072,7 +4079,9 @@
         <v>76</v>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="42"/>
+      <c r="D25" s="42">
+        <v>0</v>
+      </c>
       <c r="E25" s="73">
         <f t="shared" ref="E25:E27" ca="1" si="7">E19</f>
         <v>45097</v>
@@ -4146,7 +4155,9 @@
         <v>77</v>
       </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="42"/>
+      <c r="D26" s="42">
+        <v>0</v>
+      </c>
       <c r="E26" s="73">
         <f t="shared" ca="1" si="7"/>
         <v>45097</v>
@@ -4221,7 +4232,7 @@
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="42">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E27" s="73">
         <f t="shared" ca="1" si="7"/>
@@ -4291,21 +4302,18 @@
       <c r="BL27" s="5"/>
     </row>
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="75"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="42">
+        <v>0</v>
+      </c>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="38"/>
-      <c r="H28" s="38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H28" s="38"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -4364,24 +4372,20 @@
       <c r="BL28" s="5"/>
     </row>
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="76">
-        <f ca="1">E9+15</f>
-        <v>45108</v>
-      </c>
-      <c r="F29" s="76">
-        <f ca="1">E29+5</f>
-        <v>45113</v>
-      </c>
+      <c r="A29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="75"/>
       <c r="G29" s="38"/>
-      <c r="H29" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+      <c r="H29" s="38" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -4443,22 +4447,22 @@
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="B30" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="45"/>
       <c r="E30" s="76">
-        <f ca="1">F29+1</f>
-        <v>45114</v>
+        <f ca="1">E9+15</f>
+        <v>45108</v>
       </c>
       <c r="F30" s="76">
-        <f ca="1">E30+4</f>
-        <v>45118</v>
+        <f ca="1">E30+5</f>
+        <v>45113</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -4520,22 +4524,22 @@
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="B31" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="45"/>
       <c r="E31" s="76">
-        <f ca="1">E30+5</f>
-        <v>45119</v>
+        <f ca="1">F30+1</f>
+        <v>45114</v>
       </c>
       <c r="F31" s="76">
-        <f ca="1">E31+5</f>
-        <v>45124</v>
+        <f ca="1">E31+4</f>
+        <v>45118</v>
       </c>
       <c r="G31" s="38"/>
       <c r="H31" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -4597,22 +4601,22 @@
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="45"/>
       <c r="E32" s="76">
-        <f ca="1">F31+1</f>
-        <v>45125</v>
+        <f ca="1">E31+5</f>
+        <v>45119</v>
       </c>
       <c r="F32" s="76">
-        <f ca="1">E32+4</f>
-        <v>45129</v>
+        <f ca="1">E32+5</f>
+        <v>45124</v>
       </c>
       <c r="G32" s="38"/>
       <c r="H32" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -4674,17 +4678,17 @@
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="B33" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="45"/>
       <c r="E33" s="76">
-        <f ca="1">E31</f>
-        <v>45119</v>
+        <f ca="1">F32+1</f>
+        <v>45125</v>
       </c>
       <c r="F33" s="76">
         <f ca="1">E33+4</f>
-        <v>45123</v>
+        <v>45129</v>
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38">
@@ -4749,20 +4753,24 @@
       <c r="BL33" s="5"/>
     </row>
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="78"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="76">
+        <f ca="1">E32</f>
+        <v>45119</v>
+      </c>
+      <c r="F34" s="76">
+        <f ca="1">E34+4</f>
+        <v>45123</v>
+      </c>
       <c r="G34" s="38"/>
-      <c r="H34" s="38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="H34" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -4822,22 +4830,20 @@
       <c r="BL34" s="5"/>
     </row>
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="79" t="s">
-        <v>26</v>
-      </c>
+      <c r="A35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
       <c r="G35" s="38"/>
-      <c r="H35" s="38" t="e">
+      <c r="H35" s="38" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -4899,7 +4905,7 @@
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="B36" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="48"/>
@@ -4974,7 +4980,7 @@
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="B37" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="48"/>
@@ -5049,7 +5055,7 @@
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="B38" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="48"/>
@@ -5124,7 +5130,7 @@
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="B39" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="48"/>
@@ -5198,13 +5204,22 @@
     </row>
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
-      <c r="B40" s="25"/>
+      <c r="B40" s="25" t="s">
+        <v>20</v>
+      </c>
       <c r="C40" s="21"/>
       <c r="D40" s="48"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
+      <c r="E40" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="79" t="s">
+        <v>26</v>
+      </c>
       <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
+      <c r="H40" s="38" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -5263,21 +5278,14 @@
       <c r="BL40" s="5"/>
     </row>
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
       <c r="G41" s="38"/>
-      <c r="H41" s="38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H41" s="38"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -5336,20 +5344,21 @@
       <c r="BL41" s="5"/>
     </row>
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="90">
-        <v>0</v>
-      </c>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
+      <c r="A42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="85"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
       <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
+      <c r="H42" s="38" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -5413,7 +5422,7 @@
         <v>49</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="90">
         <v>0</v>
@@ -5482,20 +5491,16 @@
     <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8"/>
       <c r="B44" s="89" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C44" s="92" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44" s="90">
-        <v>0.5</v>
-      </c>
-      <c r="E44" s="91">
-        <v>45092</v>
-      </c>
-      <c r="F44" s="91">
-        <v>45093</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
       <c r="I44" s="5"/>
@@ -5558,16 +5563,16 @@
     <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8"/>
       <c r="B45" s="89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="92" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D45" s="90">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="E45" s="91">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="F45" s="91">
         <v>45093</v>
@@ -5634,16 +5639,20 @@
     <row r="46" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
       <c r="B46" s="89" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C46" s="92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="90">
-        <v>0</v>
-      </c>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
+        <v>0.9</v>
+      </c>
+      <c r="E46" s="91">
+        <v>45093</v>
+      </c>
+      <c r="F46" s="91">
+        <v>45093</v>
+      </c>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
       <c r="I46" s="5"/>
@@ -5709,7 +5718,7 @@
         <v>60</v>
       </c>
       <c r="C47" s="92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="90">
         <v>0</v>
@@ -5778,10 +5787,10 @@
     <row r="48" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8"/>
       <c r="B48" s="89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="92" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D48" s="90">
         <v>0</v>
@@ -5853,7 +5862,7 @@
         <v>61</v>
       </c>
       <c r="C49" s="92" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D49" s="90">
         <v>0</v>
@@ -5922,10 +5931,10 @@
     <row r="50" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
       <c r="B50" s="89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" s="90">
         <v>0</v>
@@ -5992,104 +6001,176 @@
       <c r="BL50" s="5"/>
     </row>
     <row r="51" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="90">
+        <v>0</v>
+      </c>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="5"/>
+      <c r="AR51" s="5"/>
+      <c r="AS51" s="5"/>
+      <c r="AT51" s="5"/>
+      <c r="AU51" s="5"/>
+      <c r="AV51" s="5"/>
+      <c r="AW51" s="5"/>
+      <c r="AX51" s="5"/>
+      <c r="AY51" s="5"/>
+      <c r="AZ51" s="5"/>
+      <c r="BA51" s="5"/>
+      <c r="BB51" s="5"/>
+      <c r="BC51" s="5"/>
+      <c r="BD51" s="5"/>
+      <c r="BE51" s="5"/>
+      <c r="BF51" s="5"/>
+      <c r="BG51" s="5"/>
+      <c r="BH51" s="5"/>
+      <c r="BI51" s="5"/>
+      <c r="BJ51" s="5"/>
+      <c r="BK51" s="5"/>
+      <c r="BL51" s="5"/>
+    </row>
+    <row r="52" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B52" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52" t="str">
+      <c r="C52" s="50"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="7"/>
-      <c r="AC51" s="7"/>
-      <c r="AD51" s="7"/>
-      <c r="AE51" s="7"/>
-      <c r="AF51" s="7"/>
-      <c r="AG51" s="7"/>
-      <c r="AH51" s="7"/>
-      <c r="AI51" s="7"/>
-      <c r="AJ51" s="7"/>
-      <c r="AK51" s="7"/>
-      <c r="AL51" s="7"/>
-      <c r="AM51" s="7"/>
-      <c r="AN51" s="7"/>
-      <c r="AO51" s="7"/>
-      <c r="AP51" s="7"/>
-      <c r="AQ51" s="7"/>
-      <c r="AR51" s="7"/>
-      <c r="AS51" s="7"/>
-      <c r="AT51" s="7"/>
-      <c r="AU51" s="7"/>
-      <c r="AV51" s="7"/>
-      <c r="AW51" s="7"/>
-      <c r="AX51" s="7"/>
-      <c r="AY51" s="7"/>
-      <c r="AZ51" s="7"/>
-      <c r="BA51" s="7"/>
-      <c r="BB51" s="7"/>
-      <c r="BC51" s="7"/>
-      <c r="BD51" s="7"/>
-      <c r="BE51" s="7"/>
-      <c r="BF51" s="7"/>
-      <c r="BG51" s="7"/>
-      <c r="BH51" s="7"/>
-      <c r="BI51" s="7"/>
-      <c r="BJ51" s="7"/>
-      <c r="BK51" s="7"/>
-      <c r="BL51" s="7"/>
-    </row>
-    <row r="52" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G52" s="3"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+      <c r="AO52" s="7"/>
+      <c r="AP52" s="7"/>
+      <c r="AQ52" s="7"/>
+      <c r="AR52" s="7"/>
+      <c r="AS52" s="7"/>
+      <c r="AT52" s="7"/>
+      <c r="AU52" s="7"/>
+      <c r="AV52" s="7"/>
+      <c r="AW52" s="7"/>
+      <c r="AX52" s="7"/>
+      <c r="AY52" s="7"/>
+      <c r="AZ52" s="7"/>
+      <c r="BA52" s="7"/>
+      <c r="BB52" s="7"/>
+      <c r="BC52" s="7"/>
+      <c r="BD52" s="7"/>
+      <c r="BE52" s="7"/>
+      <c r="BF52" s="7"/>
+      <c r="BG52" s="7"/>
+      <c r="BH52" s="7"/>
+      <c r="BI52" s="7"/>
+      <c r="BJ52" s="7"/>
+      <c r="BK52" s="7"/>
+      <c r="BL52" s="7"/>
     </row>
     <row r="53" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="53"/>
-      <c r="F53" s="54"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C54" s="55"/>
+      <c r="C54" s="53"/>
+      <c r="F54" s="54"/>
+    </row>
+    <row r="55" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D51">
+  <conditionalFormatting sqref="D7:D52">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6103,12 +6184,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL51">
+  <conditionalFormatting sqref="I5:BL52">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL51">
+  <conditionalFormatting sqref="I7:BL52">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -6132,10 +6213,10 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="50" max="16383" man="1"/>
+    <brk id="51" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="F30:F31 E31" formula="1"/>
+    <ignoredError sqref="F31:F32 E32" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -6153,7 +6234,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D51</xm:sqref>
+          <xm:sqref>D7:D52</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6271,12 +6352,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6568,29 +6660,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6617,13 +6702,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099DE8CD-ECB6-4C1D-A0D3-010277777BB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6B3E15-9977-4CCB-9C63-2787CE441AA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -2059,9 +2059,9 @@
   </sheetPr>
   <dimension ref="A1:BL55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="57" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2119,7 +2119,7 @@
       <c r="D3" s="94"/>
       <c r="E3" s="98">
         <f ca="1">TODAY()</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F3" s="98"/>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="I4" s="95">
         <f ca="1">I5</f>
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
@@ -2146,7 +2146,7 @@
       <c r="O4" s="97"/>
       <c r="P4" s="95">
         <f ca="1">P5</f>
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="Q4" s="96"/>
       <c r="R4" s="96"/>
@@ -2156,7 +2156,7 @@
       <c r="V4" s="97"/>
       <c r="W4" s="95">
         <f ca="1">W5</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="X4" s="96"/>
       <c r="Y4" s="96"/>
@@ -2166,7 +2166,7 @@
       <c r="AC4" s="97"/>
       <c r="AD4" s="95">
         <f ca="1">AD5</f>
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="AE4" s="96"/>
       <c r="AF4" s="96"/>
@@ -2176,7 +2176,7 @@
       <c r="AJ4" s="97"/>
       <c r="AK4" s="95">
         <f ca="1">AK5</f>
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="AL4" s="96"/>
       <c r="AM4" s="96"/>
@@ -2186,7 +2186,7 @@
       <c r="AQ4" s="97"/>
       <c r="AR4" s="95">
         <f ca="1">AR5</f>
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="AS4" s="96"/>
       <c r="AT4" s="96"/>
@@ -2196,7 +2196,7 @@
       <c r="AX4" s="97"/>
       <c r="AY4" s="95">
         <f ca="1">AY5</f>
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="AZ4" s="96"/>
       <c r="BA4" s="96"/>
@@ -2206,7 +2206,7 @@
       <c r="BE4" s="97"/>
       <c r="BF4" s="95">
         <f ca="1">BF5</f>
-        <v>45138</v>
+        <v>45145</v>
       </c>
       <c r="BG4" s="96"/>
       <c r="BH4" s="96"/>
@@ -2227,227 +2227,227 @@
       <c r="G5" s="26"/>
       <c r="I5" s="82">
         <f ca="1">プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="J5" s="83">
         <f ca="1">I5+1</f>
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="K5" s="83">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="L5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45092</v>
+        <v>45099</v>
       </c>
       <c r="M5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="N5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="O5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45095</v>
+        <v>45102</v>
       </c>
       <c r="P5" s="82">
         <f ca="1">O5+1</f>
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="Q5" s="83">
         <f ca="1">P5+1</f>
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="R5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45098</v>
+        <v>45105</v>
       </c>
       <c r="S5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="T5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="U5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="V5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45102</v>
+        <v>45109</v>
       </c>
       <c r="W5" s="82">
         <f ca="1">V5+1</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="X5" s="83">
         <f ca="1">W5+1</f>
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="Y5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45105</v>
+        <v>45112</v>
       </c>
       <c r="Z5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45106</v>
+        <v>45113</v>
       </c>
       <c r="AA5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="AB5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="AC5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45109</v>
+        <v>45116</v>
       </c>
       <c r="AD5" s="82">
         <f ca="1">AC5+1</f>
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="AE5" s="83">
         <f ca="1">AD5+1</f>
-        <v>45111</v>
+        <v>45118</v>
       </c>
       <c r="AF5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="AG5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45113</v>
+        <v>45120</v>
       </c>
       <c r="AH5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="AI5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="AJ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="AK5" s="82">
         <f ca="1">AJ5+1</f>
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="AL5" s="83">
         <f ca="1">AK5+1</f>
-        <v>45118</v>
+        <v>45125</v>
       </c>
       <c r="AM5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="AN5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45120</v>
+        <v>45127</v>
       </c>
       <c r="AO5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="AP5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="AQ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45123</v>
+        <v>45130</v>
       </c>
       <c r="AR5" s="82">
         <f ca="1">AQ5+1</f>
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="AS5" s="83">
         <f ca="1">AR5+1</f>
-        <v>45125</v>
+        <v>45132</v>
       </c>
       <c r="AT5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45126</v>
+        <v>45133</v>
       </c>
       <c r="AU5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45127</v>
+        <v>45134</v>
       </c>
       <c r="AV5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="AW5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="AX5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45130</v>
+        <v>45137</v>
       </c>
       <c r="AY5" s="82">
         <f ca="1">AX5+1</f>
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="AZ5" s="83">
         <f ca="1">AY5+1</f>
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="BA5" s="83">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45133</v>
+        <v>45140</v>
       </c>
       <c r="BB5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="BC5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="BD5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45143</v>
       </c>
       <c r="BE5" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>45137</v>
+        <v>45144</v>
       </c>
       <c r="BF5" s="82">
         <f ca="1">BE5+1</f>
-        <v>45138</v>
+        <v>45145</v>
       </c>
       <c r="BG5" s="83">
         <f ca="1">BF5+1</f>
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="BH5" s="83">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45140</v>
+        <v>45147</v>
       </c>
       <c r="BI5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45141</v>
+        <v>45148</v>
       </c>
       <c r="BJ5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="BK5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="BL5" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>45144</v>
+        <v>45151</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2851,11 +2851,11 @@
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -2932,11 +2932,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">F9</f>
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3011,11 +3011,11 @@
       </c>
       <c r="E11" s="70">
         <f ca="1">F10</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3090,11 +3090,11 @@
       </c>
       <c r="E12" s="70">
         <f ca="1">F11</f>
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3233,11 +3233,11 @@
       <c r="D14" s="39"/>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45099</v>
+        <v>45102</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3385,11 +3385,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14-5</f>
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+6</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3464,11 +3464,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+1</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3543,11 +3543,11 @@
       </c>
       <c r="E18" s="73">
         <f ca="1">E17</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3622,11 +3622,11 @@
       </c>
       <c r="E19" s="73">
         <f ca="1">E18+4</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+4</f>
-        <v>45101</v>
+        <v>45104</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3701,11 +3701,11 @@
       </c>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="F20" s="73">
         <f t="shared" ref="F20:F22" ca="1" si="6">E20+2</f>
-        <v>45099</v>
+        <v>45102</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
@@ -3777,11 +3777,11 @@
       </c>
       <c r="E21" s="73">
         <f ca="1">E17</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F21" s="73">
         <f ca="1">E21+2</f>
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
@@ -3853,11 +3853,11 @@
       </c>
       <c r="E22" s="73">
         <f ca="1">E21</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F22" s="73">
         <f t="shared" ca="1" si="6"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
@@ -3929,11 +3929,11 @@
       </c>
       <c r="E23" s="73">
         <f ca="1">E17</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F23" s="73">
         <f ca="1">E23+3</f>
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38">
@@ -4008,11 +4008,11 @@
       </c>
       <c r="E24" s="73">
         <f ca="1">E18+4</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="F24" s="73">
         <f ca="1">E24+3</f>
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
@@ -4084,11 +4084,11 @@
       </c>
       <c r="E25" s="73">
         <f t="shared" ref="E25:E27" ca="1" si="7">E19</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="F25" s="73">
         <f t="shared" ref="F25:F26" ca="1" si="8">E25+3</f>
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
@@ -4160,11 +4160,11 @@
       </c>
       <c r="E26" s="73">
         <f t="shared" ca="1" si="7"/>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="F26" s="73">
         <f t="shared" ca="1" si="8"/>
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
@@ -4236,11 +4236,11 @@
       </c>
       <c r="E27" s="73">
         <f t="shared" ca="1" si="7"/>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F27" s="73">
         <f ca="1">E27+6</f>
-        <v>45099</v>
+        <v>45102</v>
       </c>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="42">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
@@ -4453,11 +4453,11 @@
       <c r="D30" s="45"/>
       <c r="E30" s="76">
         <f ca="1">E9+15</f>
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="F30" s="76">
         <f ca="1">E30+5</f>
-        <v>45113</v>
+        <v>45116</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38">
@@ -4530,11 +4530,11 @@
       <c r="D31" s="45"/>
       <c r="E31" s="76">
         <f ca="1">F30+1</f>
-        <v>45114</v>
+        <v>45117</v>
       </c>
       <c r="F31" s="76">
         <f ca="1">E31+4</f>
-        <v>45118</v>
+        <v>45121</v>
       </c>
       <c r="G31" s="38"/>
       <c r="H31" s="38">
@@ -4607,11 +4607,11 @@
       <c r="D32" s="45"/>
       <c r="E32" s="76">
         <f ca="1">E31+5</f>
-        <v>45119</v>
+        <v>45122</v>
       </c>
       <c r="F32" s="76">
         <f ca="1">E32+5</f>
-        <v>45124</v>
+        <v>45127</v>
       </c>
       <c r="G32" s="38"/>
       <c r="H32" s="38">
@@ -4684,11 +4684,11 @@
       <c r="D33" s="45"/>
       <c r="E33" s="76">
         <f ca="1">F32+1</f>
-        <v>45125</v>
+        <v>45128</v>
       </c>
       <c r="F33" s="76">
         <f ca="1">E33+4</f>
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38">
@@ -4761,11 +4761,11 @@
       <c r="D34" s="45"/>
       <c r="E34" s="76">
         <f ca="1">E32</f>
-        <v>45119</v>
+        <v>45122</v>
       </c>
       <c r="F34" s="76">
         <f ca="1">E34+4</f>
-        <v>45123</v>
+        <v>45126</v>
       </c>
       <c r="G34" s="38"/>
       <c r="H34" s="38">

--- a/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6B3E15-9977-4CCB-9C63-2787CE441AA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F6E62C-55BD-4D2F-A392-4F3552AF4D11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1432,23 +1432,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2060,8 +2060,8 @@
   <dimension ref="A1:BL55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2113,107 +2113,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
         <v>45096</v>
       </c>
-      <c r="F3" s="98"/>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="73">
         <f t="shared" ref="E25:E27" ca="1" si="7">E19</f>
@@ -6157,17 +6157,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D52">
@@ -6352,23 +6352,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6660,22 +6649,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6702,9 +6698,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F6E62C-55BD-4D2F-A392-4F3552AF4D11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41D27DD-9DB5-4D16-8DC0-00C035A2C492}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -350,6 +350,18 @@
   </si>
   <si>
     <t>title.css</t>
+  </si>
+  <si>
+    <t>Servlet</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="29"/>
   </si>
 </sst>
 </file>
@@ -1172,7 +1184,7 @@
     <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1216,9 +1228,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="11" applyFill="1">
@@ -2061,7 +2070,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2086,12 +2095,12 @@
       <c r="B1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="31" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="30" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2102,7 +2111,7 @@
       <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2113,339 +2122,339 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="97"/>
+      <c r="E3" s="95">
         <f ca="1">TODAY()</f>
         <v>45096</v>
       </c>
-      <c r="F3" s="96"/>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="92">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="I5" s="82">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="I5" s="81">
         <f ca="1">プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
         <v>45096</v>
       </c>
-      <c r="J5" s="83">
+      <c r="J5" s="82">
         <f ca="1">I5+1</f>
         <v>45097</v>
       </c>
-      <c r="K5" s="83">
+      <c r="K5" s="82">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
         <v>45098</v>
       </c>
-      <c r="L5" s="83">
+      <c r="L5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45099</v>
       </c>
-      <c r="M5" s="83">
+      <c r="M5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45100</v>
       </c>
-      <c r="N5" s="83">
+      <c r="N5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45101</v>
       </c>
-      <c r="O5" s="84">
+      <c r="O5" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>45102</v>
       </c>
-      <c r="P5" s="82">
+      <c r="P5" s="81">
         <f ca="1">O5+1</f>
         <v>45103</v>
       </c>
-      <c r="Q5" s="83">
+      <c r="Q5" s="82">
         <f ca="1">P5+1</f>
         <v>45104</v>
       </c>
-      <c r="R5" s="83">
+      <c r="R5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45105</v>
       </c>
-      <c r="S5" s="83">
+      <c r="S5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45106</v>
       </c>
-      <c r="T5" s="83">
+      <c r="T5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45107</v>
       </c>
-      <c r="U5" s="83">
+      <c r="U5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45108</v>
       </c>
-      <c r="V5" s="84">
+      <c r="V5" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>45109</v>
       </c>
-      <c r="W5" s="82">
+      <c r="W5" s="81">
         <f ca="1">V5+1</f>
         <v>45110</v>
       </c>
-      <c r="X5" s="83">
+      <c r="X5" s="82">
         <f ca="1">W5+1</f>
         <v>45111</v>
       </c>
-      <c r="Y5" s="83">
+      <c r="Y5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45112</v>
       </c>
-      <c r="Z5" s="83">
+      <c r="Z5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45113</v>
       </c>
-      <c r="AA5" s="83">
+      <c r="AA5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45114</v>
       </c>
-      <c r="AB5" s="83">
+      <c r="AB5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45115</v>
       </c>
-      <c r="AC5" s="84">
+      <c r="AC5" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>45116</v>
       </c>
-      <c r="AD5" s="82">
+      <c r="AD5" s="81">
         <f ca="1">AC5+1</f>
         <v>45117</v>
       </c>
-      <c r="AE5" s="83">
+      <c r="AE5" s="82">
         <f ca="1">AD5+1</f>
         <v>45118</v>
       </c>
-      <c r="AF5" s="83">
+      <c r="AF5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45119</v>
       </c>
-      <c r="AG5" s="83">
+      <c r="AG5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45120</v>
       </c>
-      <c r="AH5" s="83">
+      <c r="AH5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45121</v>
       </c>
-      <c r="AI5" s="83">
+      <c r="AI5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45122</v>
       </c>
-      <c r="AJ5" s="84">
+      <c r="AJ5" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>45123</v>
       </c>
-      <c r="AK5" s="82">
+      <c r="AK5" s="81">
         <f ca="1">AJ5+1</f>
         <v>45124</v>
       </c>
-      <c r="AL5" s="83">
+      <c r="AL5" s="82">
         <f ca="1">AK5+1</f>
         <v>45125</v>
       </c>
-      <c r="AM5" s="83">
+      <c r="AM5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45126</v>
       </c>
-      <c r="AN5" s="83">
+      <c r="AN5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45127</v>
       </c>
-      <c r="AO5" s="83">
+      <c r="AO5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45128</v>
       </c>
-      <c r="AP5" s="83">
+      <c r="AP5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45129</v>
       </c>
-      <c r="AQ5" s="84">
+      <c r="AQ5" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>45130</v>
       </c>
-      <c r="AR5" s="82">
+      <c r="AR5" s="81">
         <f ca="1">AQ5+1</f>
         <v>45131</v>
       </c>
-      <c r="AS5" s="83">
+      <c r="AS5" s="82">
         <f ca="1">AR5+1</f>
         <v>45132</v>
       </c>
-      <c r="AT5" s="83">
+      <c r="AT5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45133</v>
       </c>
-      <c r="AU5" s="83">
+      <c r="AU5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45134</v>
       </c>
-      <c r="AV5" s="83">
+      <c r="AV5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45135</v>
       </c>
-      <c r="AW5" s="83">
+      <c r="AW5" s="82">
         <f t="shared" ca="1" si="0"/>
         <v>45136</v>
       </c>
-      <c r="AX5" s="84">
+      <c r="AX5" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>45137</v>
       </c>
-      <c r="AY5" s="82">
+      <c r="AY5" s="81">
         <f ca="1">AX5+1</f>
         <v>45138</v>
       </c>
-      <c r="AZ5" s="83">
+      <c r="AZ5" s="82">
         <f ca="1">AY5+1</f>
         <v>45139</v>
       </c>
-      <c r="BA5" s="83">
+      <c r="BA5" s="82">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
         <v>45140</v>
       </c>
-      <c r="BB5" s="83">
+      <c r="BB5" s="82">
         <f t="shared" ca="1" si="1"/>
         <v>45141</v>
       </c>
-      <c r="BC5" s="83">
+      <c r="BC5" s="82">
         <f t="shared" ca="1" si="1"/>
         <v>45142</v>
       </c>
-      <c r="BD5" s="83">
+      <c r="BD5" s="82">
         <f t="shared" ca="1" si="1"/>
         <v>45143</v>
       </c>
-      <c r="BE5" s="84">
+      <c r="BE5" s="83">
         <f t="shared" ca="1" si="1"/>
         <v>45144</v>
       </c>
-      <c r="BF5" s="82">
+      <c r="BF5" s="81">
         <f ca="1">BE5+1</f>
         <v>45145</v>
       </c>
-      <c r="BG5" s="83">
+      <c r="BG5" s="82">
         <f ca="1">BF5+1</f>
         <v>45146</v>
       </c>
-      <c r="BH5" s="83">
+      <c r="BH5" s="82">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
         <v>45147</v>
       </c>
-      <c r="BI5" s="83">
+      <c r="BI5" s="82">
         <f t="shared" ca="1" si="2"/>
         <v>45148</v>
       </c>
-      <c r="BJ5" s="83">
+      <c r="BJ5" s="82">
         <f t="shared" ca="1" si="2"/>
         <v>45149</v>
       </c>
-      <c r="BK5" s="83">
+      <c r="BK5" s="82">
         <f t="shared" ca="1" si="2"/>
         <v>45150</v>
       </c>
-      <c r="BL5" s="84">
+      <c r="BL5" s="83">
         <f t="shared" ca="1" si="2"/>
         <v>45151</v>
       </c>
@@ -2454,246 +2463,246 @@
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="35" t="str">
+      <c r="I6" s="34" t="str">
         <f t="shared" ref="I6:AN6" ca="1" si="3">LEFT(TEXT(I5,"aaa"),1)</f>
         <v>月</v>
       </c>
-      <c r="J6" s="35" t="str">
+      <c r="J6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>火</v>
       </c>
-      <c r="K6" s="35" t="str">
+      <c r="K6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>水</v>
       </c>
-      <c r="L6" s="35" t="str">
+      <c r="L6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>木</v>
       </c>
-      <c r="M6" s="35" t="str">
+      <c r="M6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>金</v>
       </c>
-      <c r="N6" s="35" t="str">
+      <c r="N6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>土</v>
       </c>
-      <c r="O6" s="35" t="str">
+      <c r="O6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>日</v>
       </c>
-      <c r="P6" s="35" t="str">
+      <c r="P6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>月</v>
       </c>
-      <c r="Q6" s="35" t="str">
+      <c r="Q6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>火</v>
       </c>
-      <c r="R6" s="35" t="str">
+      <c r="R6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>水</v>
       </c>
-      <c r="S6" s="35" t="str">
+      <c r="S6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>木</v>
       </c>
-      <c r="T6" s="35" t="str">
+      <c r="T6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>金</v>
       </c>
-      <c r="U6" s="35" t="str">
+      <c r="U6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>土</v>
       </c>
-      <c r="V6" s="35" t="str">
+      <c r="V6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>日</v>
       </c>
-      <c r="W6" s="35" t="str">
+      <c r="W6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>月</v>
       </c>
-      <c r="X6" s="35" t="str">
+      <c r="X6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>火</v>
       </c>
-      <c r="Y6" s="35" t="str">
+      <c r="Y6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>水</v>
       </c>
-      <c r="Z6" s="35" t="str">
+      <c r="Z6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>木</v>
       </c>
-      <c r="AA6" s="35" t="str">
+      <c r="AA6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>金</v>
       </c>
-      <c r="AB6" s="35" t="str">
+      <c r="AB6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>土</v>
       </c>
-      <c r="AC6" s="35" t="str">
+      <c r="AC6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>日</v>
       </c>
-      <c r="AD6" s="35" t="str">
+      <c r="AD6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>月</v>
       </c>
-      <c r="AE6" s="35" t="str">
+      <c r="AE6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>火</v>
       </c>
-      <c r="AF6" s="35" t="str">
+      <c r="AF6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>水</v>
       </c>
-      <c r="AG6" s="35" t="str">
+      <c r="AG6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>木</v>
       </c>
-      <c r="AH6" s="35" t="str">
+      <c r="AH6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>金</v>
       </c>
-      <c r="AI6" s="35" t="str">
+      <c r="AI6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>土</v>
       </c>
-      <c r="AJ6" s="35" t="str">
+      <c r="AJ6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>日</v>
       </c>
-      <c r="AK6" s="35" t="str">
+      <c r="AK6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>月</v>
       </c>
-      <c r="AL6" s="35" t="str">
+      <c r="AL6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>火</v>
       </c>
-      <c r="AM6" s="35" t="str">
+      <c r="AM6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>水</v>
       </c>
-      <c r="AN6" s="35" t="str">
+      <c r="AN6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>木</v>
       </c>
-      <c r="AO6" s="35" t="str">
+      <c r="AO6" s="34" t="str">
         <f t="shared" ref="AO6:BL6" ca="1" si="4">LEFT(TEXT(AO5,"aaa"),1)</f>
         <v>金</v>
       </c>
-      <c r="AP6" s="35" t="str">
+      <c r="AP6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>土</v>
       </c>
-      <c r="AQ6" s="35" t="str">
+      <c r="AQ6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>日</v>
       </c>
-      <c r="AR6" s="35" t="str">
+      <c r="AR6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>月</v>
       </c>
-      <c r="AS6" s="35" t="str">
+      <c r="AS6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>火</v>
       </c>
-      <c r="AT6" s="35" t="str">
+      <c r="AT6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>水</v>
       </c>
-      <c r="AU6" s="35" t="str">
+      <c r="AU6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>木</v>
       </c>
-      <c r="AV6" s="35" t="str">
+      <c r="AV6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>金</v>
       </c>
-      <c r="AW6" s="35" t="str">
+      <c r="AW6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>土</v>
       </c>
-      <c r="AX6" s="35" t="str">
+      <c r="AX6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>日</v>
       </c>
-      <c r="AY6" s="35" t="str">
+      <c r="AY6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>月</v>
       </c>
-      <c r="AZ6" s="35" t="str">
+      <c r="AZ6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>火</v>
       </c>
-      <c r="BA6" s="35" t="str">
+      <c r="BA6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>水</v>
       </c>
-      <c r="BB6" s="35" t="str">
+      <c r="BB6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>木</v>
       </c>
-      <c r="BC6" s="35" t="str">
+      <c r="BC6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>金</v>
       </c>
-      <c r="BD6" s="35" t="str">
+      <c r="BD6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>土</v>
       </c>
-      <c r="BE6" s="35" t="str">
+      <c r="BE6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>日</v>
       </c>
-      <c r="BF6" s="35" t="str">
+      <c r="BF6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>月</v>
       </c>
-      <c r="BG6" s="35" t="str">
+      <c r="BG6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>火</v>
       </c>
-      <c r="BH6" s="35" t="str">
+      <c r="BH6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>水</v>
       </c>
-      <c r="BI6" s="35" t="str">
+      <c r="BI6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>木</v>
       </c>
-      <c r="BJ6" s="35" t="str">
+      <c r="BJ6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>金</v>
       </c>
-      <c r="BK6" s="35" t="str">
+      <c r="BK6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>土</v>
       </c>
-      <c r="BL6" s="35" t="str">
+      <c r="BL6" s="34" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>日</v>
       </c>
@@ -2769,15 +2778,15 @@
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38" t="str">
+      <c r="D8" s="36"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37" t="str">
         <f t="shared" ref="H8:H52" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
@@ -2842,23 +2851,23 @@
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="39">
+      <c r="D9" s="38">
         <v>0.5</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="69">
         <f ca="1">プロジェクトの開始</f>
         <v>45096</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="69">
         <f ca="1">E9+3</f>
         <v>45099</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37">
         <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
@@ -2923,23 +2932,23 @@
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
         <v>0.6</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="69">
         <f ca="1">F9</f>
         <v>45099</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="69">
         <f ca="1">E10+2</f>
         <v>45101</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38">
+      <c r="G10" s="37"/>
+      <c r="H10" s="37">
         <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
@@ -3002,23 +3011,23 @@
     </row>
     <row r="11" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <v>0.5</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="69">
         <f ca="1">F10</f>
         <v>45101</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="69">
         <f ca="1">E11+4</f>
         <v>45105</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38">
+      <c r="G11" s="37"/>
+      <c r="H11" s="37">
         <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
@@ -3081,23 +3090,23 @@
     </row>
     <row r="12" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="39">
+      <c r="D12" s="38">
         <v>0.25</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="69">
         <f ca="1">F11</f>
         <v>45105</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="69">
         <f ca="1">E12+5</f>
         <v>45110</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38">
+      <c r="G12" s="37"/>
+      <c r="H12" s="37">
         <f t="shared" ca="1" si="5"/>
         <v>6</v>
       </c>
@@ -3160,13 +3169,13 @@
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
-      <c r="B13" s="22"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -3226,21 +3235,21 @@
     </row>
     <row r="14" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="70">
+      <c r="D14" s="38"/>
+      <c r="E14" s="69">
         <f ca="1">E10+1</f>
         <v>45100</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="69">
         <f ca="1">E14+2</f>
         <v>45102</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38">
+      <c r="G14" s="37"/>
+      <c r="H14" s="37">
         <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
@@ -3305,15 +3314,15 @@
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38" t="str">
+      <c r="D15" s="40"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3376,23 +3385,25 @@
     </row>
     <row r="16" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="42">
+      <c r="D16" s="41">
         <v>0.7</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="72">
         <f ca="1">E14-5</f>
         <v>45095</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="72">
         <f ca="1">E16+6</f>
         <v>45101</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38">
+      <c r="G16" s="37"/>
+      <c r="H16" s="37">
         <f t="shared" ca="1" si="5"/>
         <v>7</v>
       </c>
@@ -3455,23 +3466,25 @@
     </row>
     <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="42">
+      <c r="D17" s="41">
         <v>1</v>
       </c>
-      <c r="E17" s="73">
+      <c r="E17" s="72">
         <f ca="1">E16+1</f>
         <v>45096</v>
       </c>
-      <c r="F17" s="73">
+      <c r="F17" s="72">
         <f ca="1">E17+5</f>
         <v>45101</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38">
+      <c r="G17" s="37"/>
+      <c r="H17" s="37">
         <f t="shared" ca="1" si="5"/>
         <v>6</v>
       </c>
@@ -3534,23 +3547,25 @@
     </row>
     <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="42">
+      <c r="D18" s="41">
         <v>0.5</v>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="72">
         <f ca="1">E17</f>
         <v>45096</v>
       </c>
-      <c r="F18" s="73">
+      <c r="F18" s="72">
         <f ca="1">E18+3</f>
         <v>45099</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38">
+      <c r="G18" s="37"/>
+      <c r="H18" s="37">
         <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
@@ -3613,23 +3628,25 @@
     </row>
     <row r="19" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="42">
+      <c r="D19" s="41">
         <v>0.05</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="72">
         <f ca="1">E18+4</f>
         <v>45100</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="72">
         <f ca="1">E19+4</f>
         <v>45104</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38">
+      <c r="G19" s="37"/>
+      <c r="H19" s="37">
         <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
@@ -3692,23 +3709,25 @@
     </row>
     <row r="20" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="42">
+      <c r="D20" s="41">
         <v>0</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="72">
         <f ca="1">E19</f>
         <v>45100</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="72">
         <f t="shared" ref="F20:F22" ca="1" si="6">E20+2</f>
         <v>45102</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -3768,23 +3787,25 @@
     </row>
     <row r="21" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="42">
+      <c r="D21" s="41">
         <v>0.7</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="72">
         <f ca="1">E17</f>
         <v>45096</v>
       </c>
-      <c r="F21" s="73">
+      <c r="F21" s="72">
         <f ca="1">E21+2</f>
         <v>45098</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -3844,23 +3865,25 @@
     </row>
     <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="42">
+      <c r="D22" s="41">
         <v>0.8</v>
       </c>
-      <c r="E22" s="73">
+      <c r="E22" s="72">
         <f ca="1">E21</f>
         <v>45096</v>
       </c>
-      <c r="F22" s="73">
+      <c r="F22" s="72">
         <f t="shared" ca="1" si="6"/>
         <v>45098</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -3920,23 +3943,25 @@
     </row>
     <row r="23" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="42">
+      <c r="D23" s="41">
         <v>0.6</v>
       </c>
-      <c r="E23" s="73">
+      <c r="E23" s="72">
         <f ca="1">E17</f>
         <v>45096</v>
       </c>
-      <c r="F23" s="73">
+      <c r="F23" s="72">
         <f ca="1">E23+3</f>
         <v>45099</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38">
+      <c r="G23" s="37"/>
+      <c r="H23" s="37">
         <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
@@ -3999,23 +4024,25 @@
     </row>
     <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="42">
+      <c r="D24" s="41">
         <v>0.6</v>
       </c>
-      <c r="E24" s="73">
+      <c r="E24" s="72">
         <f ca="1">E18+4</f>
         <v>45100</v>
       </c>
-      <c r="F24" s="73">
+      <c r="F24" s="72">
         <f ca="1">E24+3</f>
         <v>45103</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -4075,23 +4102,25 @@
     </row>
     <row r="25" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="42">
+      <c r="D25" s="41">
         <v>1</v>
       </c>
-      <c r="E25" s="73">
+      <c r="E25" s="72">
         <f t="shared" ref="E25:E27" ca="1" si="7">E19</f>
         <v>45100</v>
       </c>
-      <c r="F25" s="73">
+      <c r="F25" s="72">
         <f t="shared" ref="F25:F26" ca="1" si="8">E25+3</f>
         <v>45103</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -4151,23 +4180,25 @@
     </row>
     <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="42">
+      <c r="D26" s="41">
         <v>0</v>
       </c>
-      <c r="E26" s="73">
+      <c r="E26" s="72">
         <f t="shared" ca="1" si="7"/>
         <v>45100</v>
       </c>
-      <c r="F26" s="73">
+      <c r="F26" s="72">
         <f t="shared" ca="1" si="8"/>
         <v>45103</v>
       </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -4227,23 +4258,25 @@
     </row>
     <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="42">
-        <v>0.3</v>
-      </c>
-      <c r="E27" s="73">
+      <c r="D27" s="41">
+        <v>0.6</v>
+      </c>
+      <c r="E27" s="72">
         <f t="shared" ca="1" si="7"/>
         <v>45096</v>
       </c>
-      <c r="F27" s="73">
+      <c r="F27" s="72">
         <f ca="1">E27+6</f>
         <v>45102</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -4303,17 +4336,25 @@
     </row>
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="42">
-        <v>0.2</v>
-      </c>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="D28" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="E28" s="72">
+        <f ca="1">E27</f>
+        <v>45096</v>
+      </c>
+      <c r="F28" s="72">
+        <f ca="1">E28+6</f>
+        <v>45102</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -4375,15 +4416,15 @@
       <c r="A29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38" t="str">
+      <c r="C29" s="17"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -4446,21 +4487,21 @@
     </row>
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="76">
+      <c r="C30" s="18"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="75">
         <f ca="1">E9+15</f>
         <v>45111</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="75">
         <f ca="1">E30+5</f>
         <v>45116</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38">
+      <c r="G30" s="37"/>
+      <c r="H30" s="37">
         <f t="shared" ca="1" si="5"/>
         <v>6</v>
       </c>
@@ -4523,21 +4564,21 @@
     </row>
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="76">
+      <c r="C31" s="18"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="75">
         <f ca="1">F30+1</f>
         <v>45117</v>
       </c>
-      <c r="F31" s="76">
+      <c r="F31" s="75">
         <f ca="1">E31+4</f>
         <v>45121</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38">
+      <c r="G31" s="37"/>
+      <c r="H31" s="37">
         <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
@@ -4600,21 +4641,21 @@
     </row>
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="76">
+      <c r="C32" s="18"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="75">
         <f ca="1">E31+5</f>
         <v>45122</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="75">
         <f ca="1">E32+5</f>
         <v>45127</v>
       </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38">
+      <c r="G32" s="37"/>
+      <c r="H32" s="37">
         <f t="shared" ca="1" si="5"/>
         <v>6</v>
       </c>
@@ -4677,21 +4718,21 @@
     </row>
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="76">
+      <c r="C33" s="18"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="75">
         <f ca="1">F32+1</f>
         <v>45128</v>
       </c>
-      <c r="F33" s="76">
+      <c r="F33" s="75">
         <f ca="1">E33+4</f>
         <v>45132</v>
       </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38">
+      <c r="G33" s="37"/>
+      <c r="H33" s="37">
         <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
@@ -4754,21 +4795,21 @@
     </row>
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="76">
+      <c r="C34" s="18"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="75">
         <f ca="1">E32</f>
         <v>45122</v>
       </c>
-      <c r="F34" s="76">
+      <c r="F34" s="75">
         <f ca="1">E34+4</f>
         <v>45126</v>
       </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38">
+      <c r="G34" s="37"/>
+      <c r="H34" s="37">
         <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
@@ -4833,15 +4874,15 @@
       <c r="A35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38" t="str">
+      <c r="C35" s="19"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -4904,19 +4945,19 @@
     </row>
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="79" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="79" t="s">
+      <c r="F36" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38" t="e">
+      <c r="G36" s="37"/>
+      <c r="H36" s="37" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
@@ -4979,19 +5020,19 @@
     </row>
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="79" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="79" t="s">
+      <c r="F37" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38" t="e">
+      <c r="G37" s="37"/>
+      <c r="H37" s="37" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
@@ -5054,19 +5095,19 @@
     </row>
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="79" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="79" t="s">
+      <c r="F38" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38" t="e">
+      <c r="G38" s="37"/>
+      <c r="H38" s="37" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
@@ -5129,19 +5170,19 @@
     </row>
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="79" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="79" t="s">
+      <c r="F39" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38" t="e">
+      <c r="G39" s="37"/>
+      <c r="H39" s="37" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
@@ -5204,19 +5245,19 @@
     </row>
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="79" t="s">
+      <c r="C40" s="20"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="79" t="s">
+      <c r="F40" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38" t="e">
+      <c r="G40" s="37"/>
+      <c r="H40" s="37" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
@@ -5279,13 +5320,13 @@
     </row>
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -5347,15 +5388,15 @@
       <c r="A42" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="85"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38" t="str">
+      <c r="C42" s="84"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5418,19 +5459,19 @@
     </row>
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
-      <c r="B43" s="89" t="s">
+      <c r="B43" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="92" t="s">
+      <c r="C43" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="90">
+      <c r="D43" s="89">
         <v>0</v>
       </c>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -5490,19 +5531,19 @@
     </row>
     <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8"/>
-      <c r="B44" s="89" t="s">
+      <c r="B44" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="92" t="s">
+      <c r="C44" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="90">
+      <c r="D44" s="89">
         <v>0</v>
       </c>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -5562,23 +5603,23 @@
     </row>
     <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8"/>
-      <c r="B45" s="89" t="s">
+      <c r="B45" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="92" t="s">
+      <c r="C45" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="90">
+      <c r="D45" s="89">
         <v>0.5</v>
       </c>
-      <c r="E45" s="91">
+      <c r="E45" s="90">
         <v>45092</v>
       </c>
-      <c r="F45" s="91">
+      <c r="F45" s="90">
         <v>45093</v>
       </c>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -5638,23 +5679,23 @@
     </row>
     <row r="46" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
-      <c r="B46" s="89" t="s">
+      <c r="B46" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="92" t="s">
+      <c r="C46" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="90">
+      <c r="D46" s="89">
         <v>0.9</v>
       </c>
-      <c r="E46" s="91">
+      <c r="E46" s="90">
         <v>45093</v>
       </c>
-      <c r="F46" s="91">
+      <c r="F46" s="90">
         <v>45093</v>
       </c>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -5714,19 +5755,19 @@
     </row>
     <row r="47" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8"/>
-      <c r="B47" s="89" t="s">
+      <c r="B47" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="92" t="s">
+      <c r="C47" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="90">
+      <c r="D47" s="89">
         <v>0</v>
       </c>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -5786,19 +5827,19 @@
     </row>
     <row r="48" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8"/>
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="92" t="s">
+      <c r="C48" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="90">
+      <c r="D48" s="89">
         <v>0</v>
       </c>
-      <c r="E48" s="91"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -5858,19 +5899,19 @@
     </row>
     <row r="49" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8"/>
-      <c r="B49" s="89" t="s">
+      <c r="B49" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="92" t="s">
+      <c r="C49" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="90">
+      <c r="D49" s="89">
         <v>0</v>
       </c>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -5930,19 +5971,19 @@
     </row>
     <row r="50" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
-      <c r="B50" s="89" t="s">
+      <c r="B50" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="92" t="s">
+      <c r="C50" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="90">
+      <c r="D50" s="89">
         <v>0</v>
       </c>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -6002,19 +6043,19 @@
     </row>
     <row r="51" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8"/>
-      <c r="B51" s="89" t="s">
+      <c r="B51" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="92" t="s">
+      <c r="C51" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="90">
+      <c r="D51" s="89">
         <v>0</v>
       </c>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -6076,15 +6117,15 @@
       <c r="A52" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52" t="str">
+      <c r="C52" s="49"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6149,11 +6190,11 @@
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C54" s="53"/>
-      <c r="F54" s="54"/>
+      <c r="C54" s="52"/>
+      <c r="F54" s="53"/>
     </row>
     <row r="55" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C55" s="55"/>
+      <c r="C55" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6252,85 +6293,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87" style="56" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="57"/>
+    <col min="1" max="1" width="87" style="55" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="59" customFormat="1" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:2" s="58" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+      <c r="A2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="58"/>
-    </row>
-    <row r="3" spans="1:2" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="60" t="s">
+      <c r="B2" s="57"/>
+    </row>
+    <row r="3" spans="1:2" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="61"/>
-    </row>
-    <row r="4" spans="1:2" s="64" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="63" t="s">
+      <c r="B3" s="60"/>
+    </row>
+    <row r="4" spans="1:2" s="63" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="62" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="62" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="56" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="66" t="s">
+    <row r="7" spans="1:2" s="55" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="64" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:2" s="63" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="62" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="64" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="56" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="67" t="s">
+    <row r="10" spans="1:2" s="55" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="66" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="64" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="63" t="s">
+    <row r="11" spans="1:2" s="63" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="62" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="64" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="56" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="67" t="s">
+    <row r="13" spans="1:2" s="55" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="64" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="63" t="s">
+    <row r="14" spans="1:2" s="63" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="62" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="64" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="64" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6352,6 +6393,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6360,7 +6421,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6648,27 +6709,19 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6676,7 +6729,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6695,16 +6748,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41D27DD-9DB5-4D16-8DC0-00C035A2C492}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E39F870-D8F9-417D-9827-A12BB5DCD2B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19900" yWindow="300" windowWidth="16610" windowHeight="9860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1441,6 +1441,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1452,12 +1458,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2068,9 +2068,9 @@
   </sheetPr>
   <dimension ref="A1:BL55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="58" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2122,107 +2122,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="95">
+      <c r="D3" s="93"/>
+      <c r="E3" s="97">
         <f ca="1">TODAY()</f>
-        <v>45096</v>
-      </c>
-      <c r="F3" s="95"/>
+        <v>45097</v>
+      </c>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="97"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I4" s="94">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="92">
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="94">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="92">
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="94">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="92">
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="94">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="92">
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="94">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="92">
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="94">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="92">
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="94">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="92">
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="94">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="93"/>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="94"/>
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="95"/>
+      <c r="BI4" s="95"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="95"/>
+      <c r="BL4" s="96"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2860,11 +2860,11 @@
       </c>
       <c r="E9" s="69">
         <f ca="1">プロジェクトの開始</f>
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="F9" s="69">
         <f ca="1">E9+3</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37">
@@ -2941,11 +2941,11 @@
       </c>
       <c r="E10" s="69">
         <f ca="1">F9</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F10" s="69">
         <f ca="1">E10+2</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37">
@@ -3020,11 +3020,11 @@
       </c>
       <c r="E11" s="69">
         <f ca="1">F10</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="F11" s="69">
         <f ca="1">E11+4</f>
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37">
@@ -3099,11 +3099,11 @@
       </c>
       <c r="E12" s="69">
         <f ca="1">F11</f>
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="F12" s="69">
         <f ca="1">E12+5</f>
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37">
@@ -3242,11 +3242,11 @@
       <c r="D14" s="38"/>
       <c r="E14" s="69">
         <f ca="1">E10+1</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="F14" s="69">
         <f ca="1">E14+2</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37">
@@ -3392,15 +3392,15 @@
         <v>67</v>
       </c>
       <c r="D16" s="41">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E16" s="72">
         <f ca="1">E14-5</f>
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="F16" s="72">
         <f ca="1">E16+6</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37">
@@ -3477,11 +3477,11 @@
       </c>
       <c r="E17" s="72">
         <f ca="1">E16+1</f>
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="F17" s="72">
         <f ca="1">E17+5</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="37">
@@ -3558,11 +3558,11 @@
       </c>
       <c r="E18" s="72">
         <f ca="1">E17</f>
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="F18" s="72">
         <f ca="1">E18+3</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37">
@@ -3639,11 +3639,11 @@
       </c>
       <c r="E19" s="72">
         <f ca="1">E18+4</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="F19" s="72">
         <f ca="1">E19+4</f>
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37">
@@ -3720,11 +3720,11 @@
       </c>
       <c r="E20" s="72">
         <f ca="1">E19</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="F20" s="72">
         <f t="shared" ref="F20:F22" ca="1" si="6">E20+2</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
@@ -3798,11 +3798,11 @@
       </c>
       <c r="E21" s="72">
         <f ca="1">E17</f>
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="F21" s="72">
         <f ca="1">E21+2</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
@@ -3872,15 +3872,15 @@
         <v>73</v>
       </c>
       <c r="D22" s="41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E22" s="72">
         <f ca="1">E21</f>
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="F22" s="72">
         <f t="shared" ca="1" si="6"/>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -3954,11 +3954,11 @@
       </c>
       <c r="E23" s="72">
         <f ca="1">E17</f>
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="F23" s="72">
         <f ca="1">E23+3</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="37">
@@ -4035,11 +4035,11 @@
       </c>
       <c r="E24" s="72">
         <f ca="1">E18+4</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="F24" s="72">
         <f ca="1">E24+3</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
@@ -4113,11 +4113,11 @@
       </c>
       <c r="E25" s="72">
         <f t="shared" ref="E25:E27" ca="1" si="7">E19</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="F25" s="72">
         <f t="shared" ref="F25:F26" ca="1" si="8">E25+3</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="E26" s="72">
         <f t="shared" ca="1" si="7"/>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="F26" s="72">
         <f t="shared" ca="1" si="8"/>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
@@ -4269,11 +4269,11 @@
       </c>
       <c r="E27" s="72">
         <f t="shared" ca="1" si="7"/>
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="F27" s="72">
         <f ca="1">E27+6</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
@@ -4347,11 +4347,11 @@
       </c>
       <c r="E28" s="72">
         <f ca="1">E27</f>
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="F28" s="72">
         <f ca="1">E28+6</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
@@ -4494,11 +4494,11 @@
       <c r="D30" s="44"/>
       <c r="E30" s="75">
         <f ca="1">E9+15</f>
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="F30" s="75">
         <f ca="1">E30+5</f>
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37">
@@ -4571,11 +4571,11 @@
       <c r="D31" s="44"/>
       <c r="E31" s="75">
         <f ca="1">F30+1</f>
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="F31" s="75">
         <f ca="1">E31+4</f>
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37">
@@ -4648,11 +4648,11 @@
       <c r="D32" s="44"/>
       <c r="E32" s="75">
         <f ca="1">E31+5</f>
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="F32" s="75">
         <f ca="1">E32+5</f>
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="37">
@@ -4725,11 +4725,11 @@
       <c r="D33" s="44"/>
       <c r="E33" s="75">
         <f ca="1">F32+1</f>
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="F33" s="75">
         <f ca="1">E33+4</f>
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="37">
@@ -4802,11 +4802,11 @@
       <c r="D34" s="44"/>
       <c r="E34" s="75">
         <f ca="1">E32</f>
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="F34" s="75">
         <f ca="1">E34+4</f>
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37">
@@ -6198,17 +6198,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D52">
@@ -6288,7 +6288,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -6393,35 +6393,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6709,27 +6680,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6748,4 +6728,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E39F870-D8F9-417D-9827-A12BB5DCD2B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC9E9A3-380C-4B51-A664-2013800D4A1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19900" yWindow="300" windowWidth="16610" windowHeight="9860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1441,23 +1441,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2068,9 +2068,9 @@
   </sheetPr>
   <dimension ref="A1:BL55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="58" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="54" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2122,107 +2122,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="97">
+      <c r="D3" s="97"/>
+      <c r="E3" s="95">
         <f ca="1">TODAY()</f>
         <v>45097</v>
       </c>
-      <c r="F3" s="97"/>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="93"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="94">
+      <c r="I4" s="92">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="94">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="94">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="94">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="96"/>
-      <c r="AK4" s="94">
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="96"/>
-      <c r="AR4" s="94">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="96"/>
-      <c r="AY4" s="94">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95"/>
-      <c r="BE4" s="96"/>
-      <c r="BF4" s="94">
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="95"/>
-      <c r="BJ4" s="95"/>
-      <c r="BK4" s="95"/>
-      <c r="BL4" s="96"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -3554,7 +3554,7 @@
         <v>69</v>
       </c>
       <c r="D18" s="41">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E18" s="72">
         <f ca="1">E17</f>
@@ -6198,17 +6198,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D52">
@@ -6393,6 +6393,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6680,36 +6709,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6728,24 +6748,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC9E9A3-380C-4B51-A664-2013800D4A1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC105FA2-3AA0-4F86-9BAA-64DF05A4F3F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -336,14 +336,8 @@
     <t>profile.jsp</t>
   </si>
   <si>
-    <t>login.js</t>
-  </si>
-  <si>
     <t>new.js</t>
     <phoneticPr fontId="29"/>
-  </si>
-  <si>
-    <t>profile.js</t>
   </si>
   <si>
     <t>login.css</t>
@@ -1441,6 +1435,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1452,12 +1452,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2066,10 +2060,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL55"/>
+  <dimension ref="A1:BL53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="54" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2122,107 +2116,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="95">
+      <c r="D3" s="93"/>
+      <c r="E3" s="97">
         <f ca="1">TODAY()</f>
-        <v>45097</v>
-      </c>
-      <c r="F3" s="95"/>
+        <v>45098</v>
+      </c>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="97"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I4" s="94">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="92">
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="94">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="92">
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="94">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="92">
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="94">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="92">
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="94">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="92">
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="94">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="92">
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="94">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="92">
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="94">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="93"/>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="94"/>
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="95"/>
+      <c r="BI4" s="95"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="95"/>
+      <c r="BL4" s="96"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2787,7 +2781,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37" t="str">
-        <f t="shared" ref="H8:H52" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H50" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -2860,11 +2854,11 @@
       </c>
       <c r="E9" s="69">
         <f ca="1">プロジェクトの開始</f>
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="F9" s="69">
         <f ca="1">E9+3</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37">
@@ -2941,11 +2935,11 @@
       </c>
       <c r="E10" s="69">
         <f ca="1">F9</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="F10" s="69">
         <f ca="1">E10+2</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37">
@@ -3020,11 +3014,11 @@
       </c>
       <c r="E11" s="69">
         <f ca="1">F10</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="F11" s="69">
         <f ca="1">E11+4</f>
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37">
@@ -3099,11 +3093,11 @@
       </c>
       <c r="E12" s="69">
         <f ca="1">F11</f>
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="F12" s="69">
         <f ca="1">E12+5</f>
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37">
@@ -3242,11 +3236,11 @@
       <c r="D14" s="38"/>
       <c r="E14" s="69">
         <f ca="1">E10+1</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="F14" s="69">
         <f ca="1">E14+2</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37">
@@ -3386,7 +3380,7 @@
     <row r="16" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
       <c r="B16" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>67</v>
@@ -3396,11 +3390,11 @@
       </c>
       <c r="E16" s="72">
         <f ca="1">E14-5</f>
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="F16" s="72">
         <f ca="1">E16+6</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37">
@@ -3467,7 +3461,7 @@
     <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>68</v>
@@ -3477,11 +3471,11 @@
       </c>
       <c r="E17" s="72">
         <f ca="1">E16+1</f>
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="F17" s="72">
         <f ca="1">E17+5</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="37">
@@ -3548,21 +3542,21 @@
     <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>69</v>
       </c>
       <c r="D18" s="41">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E18" s="72">
         <f ca="1">E17</f>
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="F18" s="72">
         <f ca="1">E18+3</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37">
@@ -3629,7 +3623,7 @@
     <row r="19" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>70</v>
@@ -3639,11 +3633,11 @@
       </c>
       <c r="E19" s="72">
         <f ca="1">E18+4</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="F19" s="72">
         <f ca="1">E19+4</f>
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37">
@@ -3710,7 +3704,7 @@
     <row r="20" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="B20" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>71</v>
@@ -3720,11 +3714,11 @@
       </c>
       <c r="E20" s="72">
         <f ca="1">E19</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="F20" s="72">
         <f t="shared" ref="F20:F22" ca="1" si="6">E20+2</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
@@ -3794,15 +3788,15 @@
         <v>72</v>
       </c>
       <c r="D21" s="41">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E21" s="72">
         <f ca="1">E17</f>
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="F21" s="72">
         <f ca="1">E21+2</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
@@ -3876,11 +3870,11 @@
       </c>
       <c r="E22" s="72">
         <f ca="1">E21</f>
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="F22" s="72">
         <f t="shared" ca="1" si="6"/>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -3950,15 +3944,15 @@
         <v>74</v>
       </c>
       <c r="D23" s="41">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E23" s="72">
         <f ca="1">E17</f>
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="F23" s="72">
         <f ca="1">E23+3</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="37">
@@ -4031,15 +4025,15 @@
         <v>75</v>
       </c>
       <c r="D24" s="41">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E24" s="72">
-        <f ca="1">E18+4</f>
-        <v>45101</v>
+        <f ca="1">E19</f>
+        <v>45102</v>
       </c>
       <c r="F24" s="72">
-        <f ca="1">E24+3</f>
-        <v>45104</v>
+        <f t="shared" ref="F24" ca="1" si="7">E24+3</f>
+        <v>45105</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
@@ -4103,20 +4097,20 @@
     <row r="25" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>76</v>
       </c>
       <c r="D25" s="41">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E25" s="72">
-        <f t="shared" ref="E25:E27" ca="1" si="7">E19</f>
-        <v>45101</v>
+        <f ca="1">E21</f>
+        <v>45098</v>
       </c>
       <c r="F25" s="72">
-        <f t="shared" ref="F25:F26" ca="1" si="8">E25+3</f>
+        <f ca="1">E25+6</f>
         <v>45104</v>
       </c>
       <c r="G25" s="37"/>
@@ -4181,20 +4175,20 @@
     <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="B26" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D26" s="41">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E26" s="72">
-        <f t="shared" ca="1" si="7"/>
-        <v>45101</v>
+        <f ca="1">E25</f>
+        <v>45098</v>
       </c>
       <c r="F26" s="72">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">E26+6</f>
         <v>45104</v>
       </c>
       <c r="G26" s="37"/>
@@ -4257,26 +4251,21 @@
       <c r="BL26" s="5"/>
     </row>
     <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="41">
-        <v>0.6</v>
-      </c>
-      <c r="E27" s="72">
-        <f t="shared" ca="1" si="7"/>
-        <v>45097</v>
-      </c>
-      <c r="F27" s="72">
-        <f ca="1">E27+6</f>
-        <v>45103</v>
-      </c>
+      <c r="A27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="H27" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -4336,25 +4325,24 @@
     </row>
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
-      <c r="B28" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="41">
-        <v>0.7</v>
-      </c>
-      <c r="E28" s="72">
-        <f ca="1">E27</f>
-        <v>45097</v>
-      </c>
-      <c r="F28" s="72">
-        <f ca="1">E28+6</f>
-        <v>45103</v>
+      <c r="B28" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="75">
+        <f ca="1">E9+15</f>
+        <v>45113</v>
+      </c>
+      <c r="F28" s="75">
+        <f ca="1">E28+5</f>
+        <v>45118</v>
       </c>
       <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="H28" s="37">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -4413,20 +4401,24 @@
       <c r="BL28" s="5"/>
     </row>
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="75">
+        <f ca="1">F28+1</f>
+        <v>45119</v>
+      </c>
+      <c r="F29" s="75">
+        <f ca="1">E29+4</f>
+        <v>45123</v>
+      </c>
       <c r="G29" s="37"/>
-      <c r="H29" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="H29" s="37">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -4488,17 +4480,17 @@
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="B30" s="23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="44"/>
       <c r="E30" s="75">
-        <f ca="1">E9+15</f>
-        <v>45112</v>
+        <f ca="1">E29+5</f>
+        <v>45124</v>
       </c>
       <c r="F30" s="75">
         <f ca="1">E30+5</f>
-        <v>45117</v>
+        <v>45129</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37">
@@ -4565,17 +4557,17 @@
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="B31" s="23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="44"/>
       <c r="E31" s="75">
         <f ca="1">F30+1</f>
-        <v>45118</v>
+        <v>45130</v>
       </c>
       <c r="F31" s="75">
         <f ca="1">E31+4</f>
-        <v>45122</v>
+        <v>45134</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37">
@@ -4642,22 +4634,22 @@
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="44"/>
       <c r="E32" s="75">
-        <f ca="1">E31+5</f>
-        <v>45123</v>
+        <f ca="1">E30</f>
+        <v>45124</v>
       </c>
       <c r="F32" s="75">
-        <f ca="1">E32+5</f>
+        <f ca="1">E32+4</f>
         <v>45128</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="37">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -4717,24 +4709,20 @@
       <c r="BL32" s="5"/>
     </row>
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="75">
-        <f ca="1">F32+1</f>
-        <v>45129</v>
-      </c>
-      <c r="F33" s="75">
-        <f ca="1">E33+4</f>
-        <v>45133</v>
-      </c>
+      <c r="A33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="77"/>
       <c r="G33" s="37"/>
-      <c r="H33" s="37">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+      <c r="H33" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -4795,23 +4783,21 @@
     </row>
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
-      <c r="B34" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="75">
-        <f ca="1">E32</f>
-        <v>45123</v>
-      </c>
-      <c r="F34" s="75">
-        <f ca="1">E34+4</f>
-        <v>45127</v>
+      <c r="B34" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="78" t="s">
+        <v>26</v>
       </c>
       <c r="G34" s="37"/>
-      <c r="H34" s="37">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+      <c r="H34" s="37" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -4871,20 +4857,22 @@
       <c r="BL34" s="5"/>
     </row>
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="77"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="78" t="s">
+        <v>26</v>
+      </c>
       <c r="G35" s="37"/>
-      <c r="H35" s="37" t="str">
+      <c r="H35" s="37" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -4946,7 +4934,7 @@
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="B36" s="24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="47"/>
@@ -5021,7 +5009,7 @@
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="B37" s="24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="47"/>
@@ -5096,7 +5084,7 @@
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="B38" s="24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="47"/>
@@ -5170,22 +5158,13 @@
     </row>
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
-      <c r="B39" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="B39" s="24"/>
       <c r="C39" s="20"/>
       <c r="D39" s="47"/>
-      <c r="E39" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="78" t="s">
-        <v>26</v>
-      </c>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
       <c r="G39" s="37"/>
-      <c r="H39" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H39" s="37"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -5244,22 +5223,20 @@
       <c r="BL39" s="5"/>
     </row>
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="78" t="s">
-        <v>26</v>
-      </c>
+      <c r="A40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
       <c r="G40" s="37"/>
-      <c r="H40" s="37" t="e">
+      <c r="H40" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -5320,11 +5297,17 @@
     </row>
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
+      <c r="B41" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="89">
+        <v>0</v>
+      </c>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
       <c r="I41" s="5"/>
@@ -5385,21 +5368,20 @@
       <c r="BL41" s="5"/>
     </row>
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="84"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="89">
+        <v>0</v>
+      </c>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
       <c r="G42" s="37"/>
-      <c r="H42" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H42" s="37"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -5460,16 +5442,20 @@
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="B43" s="88" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C43" s="91" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D43" s="89">
-        <v>0</v>
-      </c>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="90">
+        <v>45092</v>
+      </c>
+      <c r="F43" s="90">
+        <v>45093</v>
+      </c>
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
       <c r="I43" s="5"/>
@@ -5532,16 +5518,20 @@
     <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8"/>
       <c r="B44" s="88" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C44" s="91" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D44" s="89">
-        <v>0</v>
-      </c>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
+        <v>0.9</v>
+      </c>
+      <c r="E44" s="90">
+        <v>45093</v>
+      </c>
+      <c r="F44" s="90">
+        <v>45093</v>
+      </c>
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
       <c r="I44" s="5"/>
@@ -5604,20 +5594,16 @@
     <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8"/>
       <c r="B45" s="88" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C45" s="91" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D45" s="89">
-        <v>0.5</v>
-      </c>
-      <c r="E45" s="90">
-        <v>45092</v>
-      </c>
-      <c r="F45" s="90">
-        <v>45093</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
       <c r="I45" s="5"/>
@@ -5680,20 +5666,16 @@
     <row r="46" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
       <c r="B46" s="88" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C46" s="91" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D46" s="89">
-        <v>0.9</v>
-      </c>
-      <c r="E46" s="90">
-        <v>45093</v>
-      </c>
-      <c r="F46" s="90">
-        <v>45093</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
       <c r="I46" s="5"/>
@@ -5756,10 +5738,10 @@
     <row r="47" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8"/>
       <c r="B47" s="88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" s="91" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D47" s="89">
         <v>0</v>
@@ -5828,10 +5810,10 @@
     <row r="48" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8"/>
       <c r="B48" s="88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48" s="91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D48" s="89">
         <v>0</v>
@@ -5900,10 +5882,10 @@
     <row r="49" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8"/>
       <c r="B49" s="88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" s="91" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D49" s="89">
         <v>0</v>
@@ -5970,248 +5952,104 @@
       <c r="BL49" s="5"/>
     </row>
     <row r="50" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="89">
-        <v>0</v>
-      </c>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5"/>
-      <c r="AF50" s="5"/>
-      <c r="AG50" s="5"/>
-      <c r="AH50" s="5"/>
-      <c r="AI50" s="5"/>
-      <c r="AJ50" s="5"/>
-      <c r="AK50" s="5"/>
-      <c r="AL50" s="5"/>
-      <c r="AM50" s="5"/>
-      <c r="AN50" s="5"/>
-      <c r="AO50" s="5"/>
-      <c r="AP50" s="5"/>
-      <c r="AQ50" s="5"/>
-      <c r="AR50" s="5"/>
-      <c r="AS50" s="5"/>
-      <c r="AT50" s="5"/>
-      <c r="AU50" s="5"/>
-      <c r="AV50" s="5"/>
-      <c r="AW50" s="5"/>
-      <c r="AX50" s="5"/>
-      <c r="AY50" s="5"/>
-      <c r="AZ50" s="5"/>
-      <c r="BA50" s="5"/>
-      <c r="BB50" s="5"/>
-      <c r="BC50" s="5"/>
-      <c r="BD50" s="5"/>
-      <c r="BE50" s="5"/>
-      <c r="BF50" s="5"/>
-      <c r="BG50" s="5"/>
-      <c r="BH50" s="5"/>
-      <c r="BI50" s="5"/>
-      <c r="BJ50" s="5"/>
-      <c r="BK50" s="5"/>
-      <c r="BL50" s="5"/>
-    </row>
-    <row r="51" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="89">
-        <v>0</v>
-      </c>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5"/>
-      <c r="AF51" s="5"/>
-      <c r="AG51" s="5"/>
-      <c r="AH51" s="5"/>
-      <c r="AI51" s="5"/>
-      <c r="AJ51" s="5"/>
-      <c r="AK51" s="5"/>
-      <c r="AL51" s="5"/>
-      <c r="AM51" s="5"/>
-      <c r="AN51" s="5"/>
-      <c r="AO51" s="5"/>
-      <c r="AP51" s="5"/>
-      <c r="AQ51" s="5"/>
-      <c r="AR51" s="5"/>
-      <c r="AS51" s="5"/>
-      <c r="AT51" s="5"/>
-      <c r="AU51" s="5"/>
-      <c r="AV51" s="5"/>
-      <c r="AW51" s="5"/>
-      <c r="AX51" s="5"/>
-      <c r="AY51" s="5"/>
-      <c r="AZ51" s="5"/>
-      <c r="BA51" s="5"/>
-      <c r="BB51" s="5"/>
-      <c r="BC51" s="5"/>
-      <c r="BD51" s="5"/>
-      <c r="BE51" s="5"/>
-      <c r="BF51" s="5"/>
-      <c r="BG51" s="5"/>
-      <c r="BH51" s="5"/>
-      <c r="BI51" s="5"/>
-      <c r="BJ51" s="5"/>
-      <c r="BK51" s="5"/>
-      <c r="BL51" s="5"/>
-    </row>
-    <row r="52" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="9" t="s">
+      <c r="A50" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="48" t="s">
+      <c r="B50" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51" t="str">
+      <c r="C50" s="49"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="7"/>
-      <c r="AD52" s="7"/>
-      <c r="AE52" s="7"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="7"/>
-      <c r="AH52" s="7"/>
-      <c r="AI52" s="7"/>
-      <c r="AJ52" s="7"/>
-      <c r="AK52" s="7"/>
-      <c r="AL52" s="7"/>
-      <c r="AM52" s="7"/>
-      <c r="AN52" s="7"/>
-      <c r="AO52" s="7"/>
-      <c r="AP52" s="7"/>
-      <c r="AQ52" s="7"/>
-      <c r="AR52" s="7"/>
-      <c r="AS52" s="7"/>
-      <c r="AT52" s="7"/>
-      <c r="AU52" s="7"/>
-      <c r="AV52" s="7"/>
-      <c r="AW52" s="7"/>
-      <c r="AX52" s="7"/>
-      <c r="AY52" s="7"/>
-      <c r="AZ52" s="7"/>
-      <c r="BA52" s="7"/>
-      <c r="BB52" s="7"/>
-      <c r="BC52" s="7"/>
-      <c r="BD52" s="7"/>
-      <c r="BE52" s="7"/>
-      <c r="BF52" s="7"/>
-      <c r="BG52" s="7"/>
-      <c r="BH52" s="7"/>
-      <c r="BI52" s="7"/>
-      <c r="BJ52" s="7"/>
-      <c r="BK52" s="7"/>
-      <c r="BL52" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="7"/>
+      <c r="AR50" s="7"/>
+      <c r="AS50" s="7"/>
+      <c r="AT50" s="7"/>
+      <c r="AU50" s="7"/>
+      <c r="AV50" s="7"/>
+      <c r="AW50" s="7"/>
+      <c r="AX50" s="7"/>
+      <c r="AY50" s="7"/>
+      <c r="AZ50" s="7"/>
+      <c r="BA50" s="7"/>
+      <c r="BB50" s="7"/>
+      <c r="BC50" s="7"/>
+      <c r="BD50" s="7"/>
+      <c r="BE50" s="7"/>
+      <c r="BF50" s="7"/>
+      <c r="BG50" s="7"/>
+      <c r="BH50" s="7"/>
+      <c r="BI50" s="7"/>
+      <c r="BJ50" s="7"/>
+      <c r="BK50" s="7"/>
+      <c r="BL50" s="7"/>
+    </row>
+    <row r="51" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="52"/>
+      <c r="F52" s="53"/>
     </row>
     <row r="53" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C54" s="52"/>
-      <c r="F54" s="53"/>
-    </row>
-    <row r="55" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C55" s="54"/>
+      <c r="C53" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D52">
+  <conditionalFormatting sqref="D7:D50">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6225,12 +6063,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL52">
+  <conditionalFormatting sqref="I5:BL50">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL52">
+  <conditionalFormatting sqref="I7:BL50">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -6254,10 +6092,10 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="51" max="16383" man="1"/>
+    <brk id="49" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="F31:F32 E32" formula="1"/>
+    <ignoredError sqref="F29:F30 E30" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -6275,7 +6113,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D52</xm:sqref>
+          <xm:sqref>D7:D50</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6413,15 +6251,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6709,6 +6538,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
@@ -6722,14 +6560,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6748,4 +6578,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC105FA2-3AA0-4F86-9BAA-64DF05A4F3F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD465E6-3DE9-437E-8685-5964F00BEAF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,9 +343,6 @@
     <t>login.css</t>
   </si>
   <si>
-    <t>title.css</t>
-  </si>
-  <si>
     <t>Servlet</t>
     <phoneticPr fontId="29"/>
   </si>
@@ -355,6 +352,10 @@
   </si>
   <si>
     <t>model</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>title.css</t>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -1435,23 +1436,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2063,8 +2064,8 @@
   <dimension ref="A1:BL53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="54" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2116,107 +2117,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="97">
+      <c r="D3" s="97"/>
+      <c r="E3" s="95">
         <f ca="1">TODAY()</f>
         <v>45098</v>
       </c>
-      <c r="F3" s="97"/>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="93"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="94">
+      <c r="I4" s="92">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="94">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="94">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="94">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="96"/>
-      <c r="AK4" s="94">
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="96"/>
-      <c r="AR4" s="94">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="96"/>
-      <c r="AY4" s="94">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95"/>
-      <c r="BE4" s="96"/>
-      <c r="BF4" s="94">
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="95"/>
-      <c r="BJ4" s="95"/>
-      <c r="BK4" s="95"/>
-      <c r="BL4" s="96"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -3380,7 +3381,7 @@
     <row r="16" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
       <c r="B16" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>67</v>
@@ -3461,7 +3462,7 @@
     <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>68</v>
@@ -3542,7 +3543,7 @@
     <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>69</v>
@@ -3623,13 +3624,13 @@
     <row r="19" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>70</v>
       </c>
       <c r="D19" s="41">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="E19" s="72">
         <f ca="1">E18+4</f>
@@ -3704,13 +3705,13 @@
     <row r="20" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="B20" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D20" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="72">
         <f ca="1">E19</f>
@@ -4178,7 +4179,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D26" s="41">
         <v>0.7</v>
@@ -6036,17 +6037,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D50">
@@ -6251,6 +6252,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6538,15 +6548,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
@@ -6560,6 +6561,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6578,12 +6587,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD465E6-3DE9-437E-8685-5964F00BEAF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95885EB8-4811-4FFF-BF0D-1DF76EC1B0A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -356,6 +356,14 @@
   </si>
   <si>
     <t>title.css</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>time.js</t>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -1436,6 +1444,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1447,12 +1461,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2061,11 +2069,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL53"/>
+  <dimension ref="A1:BL54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="54" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2117,107 +2125,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="95">
+      <c r="D3" s="93"/>
+      <c r="E3" s="97">
         <f ca="1">TODAY()</f>
-        <v>45098</v>
-      </c>
-      <c r="F3" s="95"/>
+        <v>45099</v>
+      </c>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="97"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I4" s="94">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="92">
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="94">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="92">
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="94">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="92">
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="94">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="92">
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="94">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="92">
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="94">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="92">
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="94">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="92">
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="94">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="93"/>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="94"/>
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="95"/>
+      <c r="BI4" s="95"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="95"/>
+      <c r="BL4" s="96"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2782,7 +2790,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37" t="str">
-        <f t="shared" ref="H8:H50" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H51" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -2855,11 +2863,11 @@
       </c>
       <c r="E9" s="69">
         <f ca="1">プロジェクトの開始</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F9" s="69">
         <f ca="1">E9+3</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37">
@@ -2936,11 +2944,11 @@
       </c>
       <c r="E10" s="69">
         <f ca="1">F9</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="F10" s="69">
         <f ca="1">E10+2</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37">
@@ -3015,11 +3023,11 @@
       </c>
       <c r="E11" s="69">
         <f ca="1">F10</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F11" s="69">
         <f ca="1">E11+4</f>
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37">
@@ -3094,11 +3102,11 @@
       </c>
       <c r="E12" s="69">
         <f ca="1">F11</f>
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="F12" s="69">
         <f ca="1">E12+5</f>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37">
@@ -3237,11 +3245,11 @@
       <c r="D14" s="38"/>
       <c r="E14" s="69">
         <f ca="1">E10+1</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="F14" s="69">
         <f ca="1">E14+2</f>
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37">
@@ -3391,11 +3399,11 @@
       </c>
       <c r="E16" s="72">
         <f ca="1">E14-5</f>
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="F16" s="72">
         <f ca="1">E16+6</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37">
@@ -3472,11 +3480,11 @@
       </c>
       <c r="E17" s="72">
         <f ca="1">E16+1</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F17" s="72">
         <f ca="1">E17+5</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="37">
@@ -3553,11 +3561,11 @@
       </c>
       <c r="E18" s="72">
         <f ca="1">E17</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F18" s="72">
         <f ca="1">E18+3</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37">
@@ -3634,11 +3642,11 @@
       </c>
       <c r="E19" s="72">
         <f ca="1">E18+4</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="F19" s="72">
         <f ca="1">E19+4</f>
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37">
@@ -3715,11 +3723,11 @@
       </c>
       <c r="E20" s="72">
         <f ca="1">E19</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="F20" s="72">
         <f t="shared" ref="F20:F22" ca="1" si="6">E20+2</f>
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
@@ -3793,11 +3801,11 @@
       </c>
       <c r="E21" s="72">
         <f ca="1">E17</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F21" s="72">
         <f ca="1">E21+2</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
@@ -3871,11 +3879,11 @@
       </c>
       <c r="E22" s="72">
         <f ca="1">E21</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F22" s="72">
         <f t="shared" ca="1" si="6"/>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -3949,11 +3957,11 @@
       </c>
       <c r="E23" s="72">
         <f ca="1">E17</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F23" s="72">
         <f ca="1">E23+3</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="37">
@@ -4030,11 +4038,11 @@
       </c>
       <c r="E24" s="72">
         <f ca="1">E19</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="F24" s="72">
         <f t="shared" ref="F24" ca="1" si="7">E24+3</f>
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
@@ -4098,21 +4106,21 @@
     <row r="25" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D25" s="41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E25" s="72">
-        <f ca="1">E21</f>
-        <v>45098</v>
+        <f ca="1">E24</f>
+        <v>45103</v>
       </c>
       <c r="F25" s="72">
-        <f ca="1">E25+6</f>
-        <v>45104</v>
+        <f ca="1">F24</f>
+        <v>45106</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
@@ -4174,23 +4182,25 @@
       <c r="BL25" s="5"/>
     </row>
     <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="8"/>
+      <c r="A26" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="B26" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D26" s="41">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E26" s="72">
-        <f ca="1">E25</f>
-        <v>45098</v>
+        <f ca="1">E21</f>
+        <v>45099</v>
       </c>
       <c r="F26" s="72">
         <f ca="1">E26+6</f>
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
@@ -4252,21 +4262,26 @@
       <c r="BL26" s="5"/>
     </row>
     <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="E27" s="72">
+        <f ca="1">E26</f>
+        <v>45099</v>
+      </c>
+      <c r="F27" s="72">
+        <f ca="1">E27+6</f>
+        <v>45105</v>
+      </c>
       <c r="G27" s="37"/>
-      <c r="H27" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H27" s="37"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -4325,24 +4340,20 @@
       <c r="BL27" s="5"/>
     </row>
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="75">
-        <f ca="1">E9+15</f>
-        <v>45113</v>
-      </c>
-      <c r="F28" s="75">
-        <f ca="1">E28+5</f>
-        <v>45118</v>
-      </c>
+      <c r="A28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="37">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+      <c r="H28" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -4404,22 +4415,22 @@
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="44"/>
       <c r="E29" s="75">
-        <f ca="1">F28+1</f>
+        <f ca="1">E9+15</f>
+        <v>45114</v>
+      </c>
+      <c r="F29" s="75">
+        <f ca="1">E29+5</f>
         <v>45119</v>
-      </c>
-      <c r="F29" s="75">
-        <f ca="1">E29+4</f>
-        <v>45123</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -4481,22 +4492,22 @@
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="B30" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="44"/>
       <c r="E30" s="75">
-        <f ca="1">E29+5</f>
+        <f ca="1">F29+1</f>
+        <v>45120</v>
+      </c>
+      <c r="F30" s="75">
+        <f ca="1">E30+4</f>
         <v>45124</v>
-      </c>
-      <c r="F30" s="75">
-        <f ca="1">E30+5</f>
-        <v>45129</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -4558,22 +4569,22 @@
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="B31" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="44"/>
       <c r="E31" s="75">
-        <f ca="1">F30+1</f>
+        <f ca="1">E30+5</f>
+        <v>45125</v>
+      </c>
+      <c r="F31" s="75">
+        <f ca="1">E31+5</f>
         <v>45130</v>
-      </c>
-      <c r="F31" s="75">
-        <f ca="1">E31+4</f>
-        <v>45134</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -4635,17 +4646,17 @@
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="44"/>
       <c r="E32" s="75">
-        <f ca="1">E30</f>
-        <v>45124</v>
+        <f ca="1">F31+1</f>
+        <v>45131</v>
       </c>
       <c r="F32" s="75">
         <f ca="1">E32+4</f>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="37">
@@ -4710,20 +4721,24 @@
       <c r="BL32" s="5"/>
     </row>
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="77"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="75">
+        <f ca="1">E31</f>
+        <v>45125</v>
+      </c>
+      <c r="F33" s="75">
+        <f ca="1">E33+4</f>
+        <v>45129</v>
+      </c>
       <c r="G33" s="37"/>
-      <c r="H33" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="H33" s="37">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -4783,22 +4798,20 @@
       <c r="BL33" s="5"/>
     </row>
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="78" t="s">
-        <v>26</v>
-      </c>
+      <c r="A34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77"/>
       <c r="G34" s="37"/>
-      <c r="H34" s="37" t="e">
+      <c r="H34" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -4860,7 +4873,7 @@
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="B35" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="47"/>
@@ -4935,7 +4948,7 @@
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="B36" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="47"/>
@@ -5010,7 +5023,7 @@
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="B37" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="47"/>
@@ -5085,7 +5098,7 @@
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="B38" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="47"/>
@@ -5159,13 +5172,22 @@
     </row>
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
-      <c r="B39" s="24"/>
+      <c r="B39" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="C39" s="20"/>
       <c r="D39" s="47"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
+      <c r="E39" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="78" t="s">
+        <v>26</v>
+      </c>
       <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
+      <c r="H39" s="37" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -5224,21 +5246,14 @@
       <c r="BL39" s="5"/>
     </row>
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="84"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
       <c r="G40" s="37"/>
-      <c r="H40" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H40" s="37"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -5297,20 +5312,21 @@
       <c r="BL40" s="5"/>
     </row>
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="89">
-        <v>0</v>
-      </c>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
+      <c r="A41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
       <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
+      <c r="H41" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -5374,7 +5390,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="89">
         <v>0</v>
@@ -5443,20 +5459,16 @@
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="B43" s="88" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C43" s="91" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D43" s="89">
-        <v>0.5</v>
-      </c>
-      <c r="E43" s="90">
-        <v>45092</v>
-      </c>
-      <c r="F43" s="90">
-        <v>45093</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
       <c r="I43" s="5"/>
@@ -5519,16 +5531,16 @@
     <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8"/>
       <c r="B44" s="88" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" s="91" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" s="89">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="E44" s="90">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="F44" s="90">
         <v>45093</v>
@@ -5595,16 +5607,20 @@
     <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8"/>
       <c r="B45" s="88" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C45" s="91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="89">
-        <v>0</v>
-      </c>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
+        <v>0.9</v>
+      </c>
+      <c r="E45" s="90">
+        <v>45093</v>
+      </c>
+      <c r="F45" s="90">
+        <v>45093</v>
+      </c>
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
       <c r="I45" s="5"/>
@@ -5670,7 +5686,7 @@
         <v>60</v>
       </c>
       <c r="C46" s="91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" s="89">
         <v>0</v>
@@ -5739,10 +5755,10 @@
     <row r="47" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8"/>
       <c r="B47" s="88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="91" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D47" s="89">
         <v>0</v>
@@ -5814,7 +5830,7 @@
         <v>61</v>
       </c>
       <c r="C48" s="91" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D48" s="89">
         <v>0</v>
@@ -5883,10 +5899,10 @@
     <row r="49" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8"/>
       <c r="B49" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" s="89">
         <v>0</v>
@@ -5953,104 +5969,176 @@
       <c r="BL49" s="5"/>
     </row>
     <row r="50" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="89">
+        <v>0</v>
+      </c>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="5"/>
+      <c r="AS50" s="5"/>
+      <c r="AT50" s="5"/>
+      <c r="AU50" s="5"/>
+      <c r="AV50" s="5"/>
+      <c r="AW50" s="5"/>
+      <c r="AX50" s="5"/>
+      <c r="AY50" s="5"/>
+      <c r="AZ50" s="5"/>
+      <c r="BA50" s="5"/>
+      <c r="BB50" s="5"/>
+      <c r="BC50" s="5"/>
+      <c r="BD50" s="5"/>
+      <c r="BE50" s="5"/>
+      <c r="BF50" s="5"/>
+      <c r="BG50" s="5"/>
+      <c r="BH50" s="5"/>
+      <c r="BI50" s="5"/>
+      <c r="BJ50" s="5"/>
+      <c r="BK50" s="5"/>
+      <c r="BL50" s="5"/>
+    </row>
+    <row r="51" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B51" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51" t="str">
+      <c r="C51" s="49"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="7"/>
-      <c r="AD50" s="7"/>
-      <c r="AE50" s="7"/>
-      <c r="AF50" s="7"/>
-      <c r="AG50" s="7"/>
-      <c r="AH50" s="7"/>
-      <c r="AI50" s="7"/>
-      <c r="AJ50" s="7"/>
-      <c r="AK50" s="7"/>
-      <c r="AL50" s="7"/>
-      <c r="AM50" s="7"/>
-      <c r="AN50" s="7"/>
-      <c r="AO50" s="7"/>
-      <c r="AP50" s="7"/>
-      <c r="AQ50" s="7"/>
-      <c r="AR50" s="7"/>
-      <c r="AS50" s="7"/>
-      <c r="AT50" s="7"/>
-      <c r="AU50" s="7"/>
-      <c r="AV50" s="7"/>
-      <c r="AW50" s="7"/>
-      <c r="AX50" s="7"/>
-      <c r="AY50" s="7"/>
-      <c r="AZ50" s="7"/>
-      <c r="BA50" s="7"/>
-      <c r="BB50" s="7"/>
-      <c r="BC50" s="7"/>
-      <c r="BD50" s="7"/>
-      <c r="BE50" s="7"/>
-      <c r="BF50" s="7"/>
-      <c r="BG50" s="7"/>
-      <c r="BH50" s="7"/>
-      <c r="BI50" s="7"/>
-      <c r="BJ50" s="7"/>
-      <c r="BK50" s="7"/>
-      <c r="BL50" s="7"/>
-    </row>
-    <row r="51" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G51" s="3"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="7"/>
+      <c r="AP51" s="7"/>
+      <c r="AQ51" s="7"/>
+      <c r="AR51" s="7"/>
+      <c r="AS51" s="7"/>
+      <c r="AT51" s="7"/>
+      <c r="AU51" s="7"/>
+      <c r="AV51" s="7"/>
+      <c r="AW51" s="7"/>
+      <c r="AX51" s="7"/>
+      <c r="AY51" s="7"/>
+      <c r="AZ51" s="7"/>
+      <c r="BA51" s="7"/>
+      <c r="BB51" s="7"/>
+      <c r="BC51" s="7"/>
+      <c r="BD51" s="7"/>
+      <c r="BE51" s="7"/>
+      <c r="BF51" s="7"/>
+      <c r="BG51" s="7"/>
+      <c r="BH51" s="7"/>
+      <c r="BI51" s="7"/>
+      <c r="BJ51" s="7"/>
+      <c r="BK51" s="7"/>
+      <c r="BL51" s="7"/>
     </row>
     <row r="52" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="52"/>
-      <c r="F52" s="53"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="54"/>
+      <c r="C53" s="52"/>
+      <c r="F53" s="53"/>
+    </row>
+    <row r="54" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D50">
+  <conditionalFormatting sqref="D7:D51">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6064,12 +6152,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL50">
+  <conditionalFormatting sqref="I5:BL51">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL50">
+  <conditionalFormatting sqref="I7:BL51">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -6093,10 +6181,10 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="49" max="16383" man="1"/>
+    <brk id="50" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="F29:F30 E30" formula="1"/>
+    <ignoredError sqref="F30:F31 E31" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -6114,7 +6202,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D50</xm:sqref>
+          <xm:sqref>D7:D51</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6232,35 +6320,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6548,27 +6607,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6587,4 +6655,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95885EB8-4811-4FFF-BF0D-1DF76EC1B0A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B7A77B-6146-4FAE-8C01-42CFE172E084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="340" windowWidth="16610" windowHeight="9860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1444,23 +1444,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2072,8 +2072,8 @@
   <dimension ref="A1:BL54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="54" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2125,107 +2125,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="97">
+      <c r="D3" s="97"/>
+      <c r="E3" s="95">
         <f ca="1">TODAY()</f>
-        <v>45099</v>
-      </c>
-      <c r="F3" s="97"/>
+        <v>45100</v>
+      </c>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="93"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="94">
+      <c r="I4" s="92">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="94">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="94">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="94">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="96"/>
-      <c r="AK4" s="94">
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="96"/>
-      <c r="AR4" s="94">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="96"/>
-      <c r="AY4" s="94">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95"/>
-      <c r="BE4" s="96"/>
-      <c r="BF4" s="94">
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="95"/>
-      <c r="BJ4" s="95"/>
-      <c r="BK4" s="95"/>
-      <c r="BL4" s="96"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2863,11 +2863,11 @@
       </c>
       <c r="E9" s="69">
         <f ca="1">プロジェクトの開始</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F9" s="69">
         <f ca="1">E9+3</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37">
@@ -2944,11 +2944,11 @@
       </c>
       <c r="E10" s="69">
         <f ca="1">F9</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="F10" s="69">
         <f ca="1">E10+2</f>
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37">
@@ -3023,11 +3023,11 @@
       </c>
       <c r="E11" s="69">
         <f ca="1">F10</f>
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="F11" s="69">
         <f ca="1">E11+4</f>
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37">
@@ -3102,11 +3102,11 @@
       </c>
       <c r="E12" s="69">
         <f ca="1">F11</f>
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="F12" s="69">
         <f ca="1">E12+5</f>
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37">
@@ -3245,11 +3245,11 @@
       <c r="D14" s="38"/>
       <c r="E14" s="69">
         <f ca="1">E10+1</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F14" s="69">
         <f ca="1">E14+2</f>
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37">
@@ -3399,11 +3399,11 @@
       </c>
       <c r="E16" s="72">
         <f ca="1">E14-5</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F16" s="72">
         <f ca="1">E16+6</f>
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37">
@@ -3480,11 +3480,11 @@
       </c>
       <c r="E17" s="72">
         <f ca="1">E16+1</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F17" s="72">
         <f ca="1">E17+5</f>
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="37">
@@ -3561,11 +3561,11 @@
       </c>
       <c r="E18" s="72">
         <f ca="1">E17</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F18" s="72">
         <f ca="1">E18+3</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37">
@@ -3642,11 +3642,11 @@
       </c>
       <c r="E19" s="72">
         <f ca="1">E18+4</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F19" s="72">
         <f ca="1">E19+4</f>
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37">
@@ -3723,11 +3723,11 @@
       </c>
       <c r="E20" s="72">
         <f ca="1">E19</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F20" s="72">
         <f t="shared" ref="F20:F22" ca="1" si="6">E20+2</f>
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
@@ -3801,11 +3801,11 @@
       </c>
       <c r="E21" s="72">
         <f ca="1">E17</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F21" s="72">
         <f ca="1">E21+2</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
@@ -3879,11 +3879,11 @@
       </c>
       <c r="E22" s="72">
         <f ca="1">E21</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F22" s="72">
         <f t="shared" ca="1" si="6"/>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -3957,11 +3957,11 @@
       </c>
       <c r="E23" s="72">
         <f ca="1">E17</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F23" s="72">
         <f ca="1">E23+3</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="37">
@@ -4038,11 +4038,11 @@
       </c>
       <c r="E24" s="72">
         <f ca="1">E19</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F24" s="72">
         <f t="shared" ref="F24" ca="1" si="7">E24+3</f>
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
@@ -4116,11 +4116,11 @@
       </c>
       <c r="E25" s="72">
         <f ca="1">E24</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F25" s="72">
         <f ca="1">F24</f>
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
@@ -4192,15 +4192,15 @@
         <v>76</v>
       </c>
       <c r="D26" s="41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E26" s="72">
         <f ca="1">E21</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F26" s="72">
         <f ca="1">E26+6</f>
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
@@ -4270,15 +4270,15 @@
         <v>80</v>
       </c>
       <c r="D27" s="41">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E27" s="72">
         <f ca="1">E26</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F27" s="72">
         <f ca="1">E27+6</f>
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
@@ -4421,11 +4421,11 @@
       <c r="D29" s="44"/>
       <c r="E29" s="75">
         <f ca="1">E9+15</f>
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="F29" s="75">
         <f ca="1">E29+5</f>
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37">
@@ -4498,11 +4498,11 @@
       <c r="D30" s="44"/>
       <c r="E30" s="75">
         <f ca="1">F29+1</f>
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="F30" s="75">
         <f ca="1">E30+4</f>
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37">
@@ -4575,11 +4575,11 @@
       <c r="D31" s="44"/>
       <c r="E31" s="75">
         <f ca="1">E30+5</f>
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="F31" s="75">
         <f ca="1">E31+5</f>
-        <v>45130</v>
+        <v>45131</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37">
@@ -4652,11 +4652,11 @@
       <c r="D32" s="44"/>
       <c r="E32" s="75">
         <f ca="1">F31+1</f>
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="F32" s="75">
         <f ca="1">E32+4</f>
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="37">
@@ -4729,11 +4729,11 @@
       <c r="D33" s="44"/>
       <c r="E33" s="75">
         <f ca="1">E31</f>
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="F33" s="75">
         <f ca="1">E33+4</f>
-        <v>45129</v>
+        <v>45130</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="37">
@@ -6125,17 +6125,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D51">
@@ -6320,6 +6320,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6607,36 +6636,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6655,24 +6675,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B7A77B-6146-4FAE-8C01-42CFE172E084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7465D2AB-741D-41C4-9AFE-75828631ACD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="340" windowWidth="16610" windowHeight="9860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1444,6 +1444,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1455,12 +1461,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2072,8 +2072,8 @@
   <dimension ref="A1:BL54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="54" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2125,107 +2125,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="95">
+      <c r="D3" s="93"/>
+      <c r="E3" s="97">
         <f ca="1">TODAY()</f>
-        <v>45100</v>
-      </c>
-      <c r="F3" s="95"/>
+        <v>45104</v>
+      </c>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="97"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I4" s="94">
         <f ca="1">I5</f>
-        <v>45096</v>
-      </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="92">
+        <v>45103</v>
+      </c>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="94">
         <f ca="1">P5</f>
-        <v>45103</v>
-      </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="92">
+        <v>45110</v>
+      </c>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="94">
         <f ca="1">W5</f>
-        <v>45110</v>
-      </c>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="92">
+        <v>45117</v>
+      </c>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="94">
         <f ca="1">AD5</f>
-        <v>45117</v>
-      </c>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="92">
+        <v>45124</v>
+      </c>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="94">
         <f ca="1">AK5</f>
-        <v>45124</v>
-      </c>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="92">
+        <v>45131</v>
+      </c>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="94">
         <f ca="1">AR5</f>
-        <v>45131</v>
-      </c>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="92">
+        <v>45138</v>
+      </c>
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="94">
         <f ca="1">AY5</f>
-        <v>45138</v>
-      </c>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="92">
+        <v>45145</v>
+      </c>
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="94">
         <f ca="1">BF5</f>
-        <v>45145</v>
-      </c>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="93"/>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="94"/>
+        <v>45152</v>
+      </c>
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="95"/>
+      <c r="BI4" s="95"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="95"/>
+      <c r="BL4" s="96"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2239,227 +2239,227 @@
       <c r="G5" s="25"/>
       <c r="I5" s="81">
         <f ca="1">プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="J5" s="82">
         <f ca="1">I5+1</f>
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="K5" s="82">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45098</v>
+        <v>45105</v>
       </c>
       <c r="L5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="M5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="N5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="O5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45102</v>
+        <v>45109</v>
       </c>
       <c r="P5" s="81">
         <f ca="1">O5+1</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="Q5" s="82">
         <f ca="1">P5+1</f>
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="R5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45105</v>
+        <v>45112</v>
       </c>
       <c r="S5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45106</v>
+        <v>45113</v>
       </c>
       <c r="T5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="U5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="V5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45109</v>
+        <v>45116</v>
       </c>
       <c r="W5" s="81">
         <f ca="1">V5+1</f>
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="X5" s="82">
         <f ca="1">W5+1</f>
-        <v>45111</v>
+        <v>45118</v>
       </c>
       <c r="Y5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="Z5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45113</v>
+        <v>45120</v>
       </c>
       <c r="AA5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="AB5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="AC5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="AD5" s="81">
         <f ca="1">AC5+1</f>
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="AE5" s="82">
         <f ca="1">AD5+1</f>
-        <v>45118</v>
+        <v>45125</v>
       </c>
       <c r="AF5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="AG5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45120</v>
+        <v>45127</v>
       </c>
       <c r="AH5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="AI5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="AJ5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45123</v>
+        <v>45130</v>
       </c>
       <c r="AK5" s="81">
         <f ca="1">AJ5+1</f>
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="AL5" s="82">
         <f ca="1">AK5+1</f>
-        <v>45125</v>
+        <v>45132</v>
       </c>
       <c r="AM5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45126</v>
+        <v>45133</v>
       </c>
       <c r="AN5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45127</v>
+        <v>45134</v>
       </c>
       <c r="AO5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="AP5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="AQ5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45130</v>
+        <v>45137</v>
       </c>
       <c r="AR5" s="81">
         <f ca="1">AQ5+1</f>
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="AS5" s="82">
         <f ca="1">AR5+1</f>
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="AT5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45133</v>
+        <v>45140</v>
       </c>
       <c r="AU5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="AV5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="AW5" s="82">
         <f t="shared" ca="1" si="0"/>
-        <v>45136</v>
+        <v>45143</v>
       </c>
       <c r="AX5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45137</v>
+        <v>45144</v>
       </c>
       <c r="AY5" s="81">
         <f ca="1">AX5+1</f>
-        <v>45138</v>
+        <v>45145</v>
       </c>
       <c r="AZ5" s="82">
         <f ca="1">AY5+1</f>
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="BA5" s="82">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45140</v>
+        <v>45147</v>
       </c>
       <c r="BB5" s="82">
         <f t="shared" ca="1" si="1"/>
-        <v>45141</v>
+        <v>45148</v>
       </c>
       <c r="BC5" s="82">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="BD5" s="82">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="BE5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45144</v>
+        <v>45151</v>
       </c>
       <c r="BF5" s="81">
         <f ca="1">BE5+1</f>
-        <v>45145</v>
+        <v>45152</v>
       </c>
       <c r="BG5" s="82">
         <f ca="1">BF5+1</f>
-        <v>45146</v>
+        <v>45153</v>
       </c>
       <c r="BH5" s="82">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45147</v>
+        <v>45154</v>
       </c>
       <c r="BI5" s="82">
         <f t="shared" ca="1" si="2"/>
-        <v>45148</v>
+        <v>45155</v>
       </c>
       <c r="BJ5" s="82">
         <f t="shared" ca="1" si="2"/>
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="BK5" s="82">
         <f t="shared" ca="1" si="2"/>
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="BL5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45151</v>
+        <v>45158</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2863,11 +2863,11 @@
       </c>
       <c r="E9" s="69">
         <f ca="1">プロジェクトの開始</f>
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="F9" s="69">
         <f ca="1">E9+3</f>
-        <v>45103</v>
+        <v>45107</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37">
@@ -2944,11 +2944,11 @@
       </c>
       <c r="E10" s="69">
         <f ca="1">F9</f>
-        <v>45103</v>
+        <v>45107</v>
       </c>
       <c r="F10" s="69">
         <f ca="1">E10+2</f>
-        <v>45105</v>
+        <v>45109</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37">
@@ -3023,11 +3023,11 @@
       </c>
       <c r="E11" s="69">
         <f ca="1">F10</f>
-        <v>45105</v>
+        <v>45109</v>
       </c>
       <c r="F11" s="69">
         <f ca="1">E11+4</f>
-        <v>45109</v>
+        <v>45113</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37">
@@ -3102,11 +3102,11 @@
       </c>
       <c r="E12" s="69">
         <f ca="1">F11</f>
-        <v>45109</v>
+        <v>45113</v>
       </c>
       <c r="F12" s="69">
         <f ca="1">E12+5</f>
-        <v>45114</v>
+        <v>45118</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37">
@@ -3245,11 +3245,11 @@
       <c r="D14" s="38"/>
       <c r="E14" s="69">
         <f ca="1">E10+1</f>
-        <v>45104</v>
+        <v>45108</v>
       </c>
       <c r="F14" s="69">
         <f ca="1">E14+2</f>
-        <v>45106</v>
+        <v>45110</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37">
@@ -3399,11 +3399,11 @@
       </c>
       <c r="E16" s="72">
         <f ca="1">E14-5</f>
-        <v>45099</v>
+        <v>45103</v>
       </c>
       <c r="F16" s="72">
         <f ca="1">E16+6</f>
-        <v>45105</v>
+        <v>45109</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37">
@@ -3480,11 +3480,11 @@
       </c>
       <c r="E17" s="72">
         <f ca="1">E16+1</f>
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="F17" s="72">
         <f ca="1">E17+5</f>
-        <v>45105</v>
+        <v>45109</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="37">
@@ -3561,11 +3561,11 @@
       </c>
       <c r="E18" s="72">
         <f ca="1">E17</f>
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="F18" s="72">
         <f ca="1">E18+3</f>
-        <v>45103</v>
+        <v>45107</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37">
@@ -3642,11 +3642,11 @@
       </c>
       <c r="E19" s="72">
         <f ca="1">E18+4</f>
-        <v>45104</v>
+        <v>45108</v>
       </c>
       <c r="F19" s="72">
         <f ca="1">E19+4</f>
-        <v>45108</v>
+        <v>45112</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37">
@@ -3723,11 +3723,11 @@
       </c>
       <c r="E20" s="72">
         <f ca="1">E19</f>
-        <v>45104</v>
+        <v>45108</v>
       </c>
       <c r="F20" s="72">
         <f t="shared" ref="F20:F22" ca="1" si="6">E20+2</f>
-        <v>45106</v>
+        <v>45110</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
@@ -3801,11 +3801,11 @@
       </c>
       <c r="E21" s="72">
         <f ca="1">E17</f>
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="F21" s="72">
         <f ca="1">E21+2</f>
-        <v>45102</v>
+        <v>45106</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
@@ -3879,11 +3879,11 @@
       </c>
       <c r="E22" s="72">
         <f ca="1">E21</f>
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="F22" s="72">
         <f t="shared" ca="1" si="6"/>
-        <v>45102</v>
+        <v>45106</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -3957,11 +3957,11 @@
       </c>
       <c r="E23" s="72">
         <f ca="1">E17</f>
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="F23" s="72">
         <f ca="1">E23+3</f>
-        <v>45103</v>
+        <v>45107</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="37">
@@ -4038,11 +4038,11 @@
       </c>
       <c r="E24" s="72">
         <f ca="1">E19</f>
-        <v>45104</v>
+        <v>45108</v>
       </c>
       <c r="F24" s="72">
         <f t="shared" ref="F24" ca="1" si="7">E24+3</f>
-        <v>45107</v>
+        <v>45111</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
@@ -4116,11 +4116,11 @@
       </c>
       <c r="E25" s="72">
         <f ca="1">E24</f>
-        <v>45104</v>
+        <v>45108</v>
       </c>
       <c r="F25" s="72">
         <f ca="1">F24</f>
-        <v>45107</v>
+        <v>45111</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
@@ -4196,11 +4196,11 @@
       </c>
       <c r="E26" s="72">
         <f ca="1">E21</f>
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="F26" s="72">
         <f ca="1">E26+6</f>
-        <v>45106</v>
+        <v>45110</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
@@ -4274,11 +4274,11 @@
       </c>
       <c r="E27" s="72">
         <f ca="1">E26</f>
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="F27" s="72">
         <f ca="1">E27+6</f>
-        <v>45106</v>
+        <v>45110</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
@@ -4421,11 +4421,11 @@
       <c r="D29" s="44"/>
       <c r="E29" s="75">
         <f ca="1">E9+15</f>
-        <v>45115</v>
+        <v>45119</v>
       </c>
       <c r="F29" s="75">
         <f ca="1">E29+5</f>
-        <v>45120</v>
+        <v>45124</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37">
@@ -4498,11 +4498,11 @@
       <c r="D30" s="44"/>
       <c r="E30" s="75">
         <f ca="1">F29+1</f>
-        <v>45121</v>
+        <v>45125</v>
       </c>
       <c r="F30" s="75">
         <f ca="1">E30+4</f>
-        <v>45125</v>
+        <v>45129</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37">
@@ -4575,11 +4575,11 @@
       <c r="D31" s="44"/>
       <c r="E31" s="75">
         <f ca="1">E30+5</f>
-        <v>45126</v>
+        <v>45130</v>
       </c>
       <c r="F31" s="75">
         <f ca="1">E31+5</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37">
@@ -4652,11 +4652,11 @@
       <c r="D32" s="44"/>
       <c r="E32" s="75">
         <f ca="1">F31+1</f>
-        <v>45132</v>
+        <v>45136</v>
       </c>
       <c r="F32" s="75">
         <f ca="1">E32+4</f>
-        <v>45136</v>
+        <v>45140</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="37">
@@ -4729,11 +4729,11 @@
       <c r="D33" s="44"/>
       <c r="E33" s="75">
         <f ca="1">E31</f>
-        <v>45126</v>
+        <v>45130</v>
       </c>
       <c r="F33" s="75">
         <f ca="1">E33+4</f>
-        <v>45130</v>
+        <v>45134</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="37">
@@ -6125,17 +6125,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D51">
@@ -6320,35 +6320,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6636,27 +6607,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6675,4 +6655,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/勝亦ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7465D2AB-741D-41C4-9AFE-75828631ACD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667929BD-2A47-445C-8C6E-5C92CF2E6742}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1444,23 +1444,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2072,8 +2072,8 @@
   <dimension ref="A1:BL54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="54" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2125,107 +2125,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="97">
+      <c r="D3" s="97"/>
+      <c r="E3" s="95">
         <f ca="1">TODAY()</f>
-        <v>45104</v>
-      </c>
-      <c r="F3" s="97"/>
+        <v>45106</v>
+      </c>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="93"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="94">
+      <c r="I4" s="92">
         <f ca="1">I5</f>
         <v>45103</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="94">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
         <f ca="1">P5</f>
         <v>45110</v>
       </c>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="94">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
         <f ca="1">W5</f>
         <v>45117</v>
       </c>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="94">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
         <f ca="1">AD5</f>
         <v>45124</v>
       </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="96"/>
-      <c r="AK4" s="94">
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
         <f ca="1">AK5</f>
         <v>45131</v>
       </c>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="96"/>
-      <c r="AR4" s="94">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
         <f ca="1">AR5</f>
         <v>45138</v>
       </c>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="96"/>
-      <c r="AY4" s="94">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
         <f ca="1">AY5</f>
         <v>45145</v>
       </c>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95"/>
-      <c r="BE4" s="96"/>
-      <c r="BF4" s="94">
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
         <f ca="1">BF5</f>
         <v>45152</v>
       </c>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="95"/>
-      <c r="BJ4" s="95"/>
-      <c r="BK4" s="95"/>
-      <c r="BL4" s="96"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2863,11 +2863,11 @@
       </c>
       <c r="E9" s="69">
         <f ca="1">プロジェクトの開始</f>
-        <v>45104</v>
+        <v>45106</v>
       </c>
       <c r="F9" s="69">
         <f ca="1">E9+3</f>
-        <v>45107</v>
+        <v>45109</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37">
@@ -2944,11 +2944,11 @@
       </c>
       <c r="E10" s="69">
         <f ca="1">F9</f>
-        <v>45107</v>
+        <v>45109</v>
       </c>
       <c r="F10" s="69">
         <f ca="1">E10+2</f>
-        <v>45109</v>
+        <v>45111</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37">
@@ -3023,11 +3023,11 @@
       </c>
       <c r="E11" s="69">
         <f ca="1">F10</f>
-        <v>45109</v>
+        <v>45111</v>
       </c>
       <c r="F11" s="69">
         <f ca="1">E11+4</f>
-        <v>45113</v>
+        <v>45115</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37">
@@ -3102,11 +3102,11 @@
       </c>
       <c r="E12" s="69">
         <f ca="1">F11</f>
-        <v>45113</v>
+        <v>45115</v>
       </c>
       <c r="F12" s="69">
         <f ca="1">E12+5</f>
-        <v>45118</v>
+        <v>45120</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37">
@@ -3245,11 +3245,11 @@
       <c r="D14" s="38"/>
       <c r="E14" s="69">
         <f ca="1">E10+1</f>
-        <v>45108</v>
+        <v>45110</v>
       </c>
       <c r="F14" s="69">
         <f ca="1">E14+2</f>
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37">
@@ -3398,12 +3398,12 @@
         <v>1</v>
       </c>
       <c r="E16" s="72">
-        <f ca="1">E14-5</f>
-        <v>45103</v>
+        <f ca="1">E14-20</f>
+        <v>45090</v>
       </c>
       <c r="F16" s="72">
         <f ca="1">E16+6</f>
-        <v>45109</v>
+        <v>45096</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37">
@@ -3480,11 +3480,11 @@
       </c>
       <c r="E17" s="72">
         <f ca="1">E16+1</f>
-        <v>45104</v>
+        <v>45091</v>
       </c>
       <c r="F17" s="72">
         <f ca="1">E17+5</f>
-        <v>45109</v>
+        <v>45096</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="37">
@@ -3561,11 +3561,11 @@
       </c>
       <c r="E18" s="72">
         <f ca="1">E17</f>
-        <v>45104</v>
+        <v>45091</v>
       </c>
       <c r="F18" s="72">
         <f ca="1">E18+3</f>
-        <v>45107</v>
+        <v>45094</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37">
@@ -3638,15 +3638,15 @@
         <v>70</v>
       </c>
       <c r="D19" s="41">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E19" s="72">
         <f ca="1">E18+4</f>
-        <v>45108</v>
+        <v>45095</v>
       </c>
       <c r="F19" s="72">
         <f ca="1">E19+4</f>
-        <v>45112</v>
+        <v>45099</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37">
@@ -3723,11 +3723,11 @@
       </c>
       <c r="E20" s="72">
         <f ca="1">E19</f>
-        <v>45108</v>
+        <v>45095</v>
       </c>
       <c r="F20" s="72">
-        <f t="shared" ref="F20:F22" ca="1" si="6">E20+2</f>
-        <v>45110</v>
+        <f ca="1">E20+3</f>
+        <v>45098</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
@@ -3801,11 +3801,11 @@
       </c>
       <c r="E21" s="72">
         <f ca="1">E17</f>
-        <v>45104</v>
+        <v>45091</v>
       </c>
       <c r="F21" s="72">
-        <f ca="1">E21+2</f>
-        <v>45106</v>
+        <f ca="1">E21+6</f>
+        <v>45097</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
@@ -3879,11 +3879,11 @@
       </c>
       <c r="E22" s="72">
         <f ca="1">E21</f>
-        <v>45104</v>
+        <v>45091</v>
       </c>
       <c r="F22" s="72">
-        <f t="shared" ca="1" si="6"/>
-        <v>45106</v>
+        <f ca="1">E22+6</f>
+        <v>45097</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -3957,16 +3957,16 @@
       </c>
       <c r="E23" s="72">
         <f ca="1">E17</f>
-        <v>45104</v>
+        <v>45091</v>
       </c>
       <c r="F23" s="72">
-        <f ca="1">E23+3</f>
-        <v>45107</v>
+        <f ca="1">E23+7</f>
+        <v>45098</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="37">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -4037,12 +4037,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="72">
-        <f ca="1">E19</f>
-        <v>45108</v>
+        <f ca="1">F22</f>
+        <v>45097</v>
       </c>
       <c r="F24" s="72">
-        <f t="shared" ref="F24" ca="1" si="7">E24+3</f>
-        <v>45111</v>
+        <f ca="1">E24+2</f>
+        <v>45099</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
@@ -4116,11 +4116,11 @@
       </c>
       <c r="E25" s="72">
         <f ca="1">E24</f>
-        <v>45108</v>
+        <v>45097</v>
       </c>
       <c r="F25" s="72">
         <f ca="1">F24</f>
-        <v>45111</v>
+        <v>45099</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
@@ -4196,11 +4196,11 @@
       </c>
       <c r="E26" s="72">
         <f ca="1">E21</f>
-        <v>45104</v>
+        <v>45091</v>
       </c>
       <c r="F26" s="72">
         <f ca="1">E26+6</f>
-        <v>45110</v>
+        <v>45097</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
@@ -4274,11 +4274,11 @@
       </c>
       <c r="E27" s="72">
         <f ca="1">E26</f>
-        <v>45104</v>
+        <v>45091</v>
       </c>
       <c r="F27" s="72">
         <f ca="1">E27+6</f>
-        <v>45110</v>
+        <v>45097</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
@@ -4421,11 +4421,11 @@
       <c r="D29" s="44"/>
       <c r="E29" s="75">
         <f ca="1">E9+15</f>
-        <v>45119</v>
+        <v>45121</v>
       </c>
       <c r="F29" s="75">
         <f ca="1">E29+5</f>
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37">
@@ -4498,11 +4498,11 @@
       <c r="D30" s="44"/>
       <c r="E30" s="75">
         <f ca="1">F29+1</f>
-        <v>45125</v>
+        <v>45127</v>
       </c>
       <c r="F30" s="75">
         <f ca="1">E30+4</f>
-        <v>45129</v>
+        <v>45131</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37">
@@ -4575,11 +4575,11 @@
       <c r="D31" s="44"/>
       <c r="E31" s="75">
         <f ca="1">E30+5</f>
-        <v>45130</v>
+        <v>45132</v>
       </c>
       <c r="F31" s="75">
         <f ca="1">E31+5</f>
-        <v>45135</v>
+        <v>45137</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37">
@@ -4652,11 +4652,11 @@
       <c r="D32" s="44"/>
       <c r="E32" s="75">
         <f ca="1">F31+1</f>
-        <v>45136</v>
+        <v>45138</v>
       </c>
       <c r="F32" s="75">
         <f ca="1">E32+4</f>
-        <v>45140</v>
+        <v>45142</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="37">
@@ -4729,11 +4729,11 @@
       <c r="D33" s="44"/>
       <c r="E33" s="75">
         <f ca="1">E31</f>
-        <v>45130</v>
+        <v>45132</v>
       </c>
       <c r="F33" s="75">
         <f ca="1">E33+4</f>
-        <v>45134</v>
+        <v>45136</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="37">
@@ -6125,17 +6125,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D51">
@@ -6320,6 +6320,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6607,36 +6636,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6655,24 +6675,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>